--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D345E-57A4-4F31-85E8-8B5CD48FE366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4EF566-B53D-486E-B875-F0A3C08FE0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31770" yWindow="0" windowWidth="21075" windowHeight="15600" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="420" windowWidth="21075" windowHeight="15600" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Project Snapshot 2</t>
   </si>
   <si>
-    <t>Create Readme files, gantt charts, Git wiki,Project artifacts</t>
-  </si>
-  <si>
     <t>Project Snapshot 3</t>
   </si>
   <si>
@@ -215,6 +212,18 @@
   </si>
   <si>
     <t>M. Haidari  K. Westbrook, Kelvin luk</t>
+  </si>
+  <si>
+    <t>Mansoor</t>
+  </si>
+  <si>
+    <t>READme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Document Diesgn </t>
+  </si>
+  <si>
+    <t>Gantt chart Phase 1, Git Wiki</t>
   </si>
 </sst>
 </file>
@@ -892,6 +901,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -904,13 +920,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1480,8 +1489,8 @@
   <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1510,7 @@
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59"/>
       <c r="B1" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1524,343 +1533,343 @@
         <v>29</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
         <f ca="1">TODAY()</f>
-        <v>44974</v>
-      </c>
-      <c r="F3" s="88"/>
+        <v>44977</v>
+      </c>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f ca="1">I5</f>
-        <v>44970</v>
-      </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+        <v>44977</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f ca="1">P5</f>
-        <v>44977</v>
-      </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+        <v>44984</v>
+      </c>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f ca="1">W5</f>
-        <v>44984</v>
-      </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+        <v>44991</v>
+      </c>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f ca="1">AD5</f>
-        <v>44991</v>
-      </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+        <v>44998</v>
+      </c>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f ca="1">AK5</f>
-        <v>44998</v>
-      </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+        <v>45005</v>
+      </c>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f ca="1">AR5</f>
-        <v>45005</v>
-      </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+        <v>45012</v>
+      </c>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f ca="1">AY5</f>
-        <v>45012</v>
-      </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+        <v>45019</v>
+      </c>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f ca="1">BF5</f>
-        <v>45019</v>
-      </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+        <v>45026</v>
+      </c>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44970</v>
+        <v>44977</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44971</v>
+        <v>44978</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44976</v>
+        <v>44983</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44977</v>
+        <v>44984</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44978</v>
+        <v>44985</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44980</v>
+        <v>44987</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44982</v>
+        <v>44989</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44983</v>
+        <v>44990</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>44985</v>
+        <v>44992</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44987</v>
+        <v>44994</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44989</v>
+        <v>44996</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44990</v>
+        <v>44997</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>44992</v>
+        <v>44999</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>45001</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45004</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>44999</v>
+        <v>45006</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45009</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45010</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45011</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45014</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45015</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45016</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45018</v>
+        <v>45025</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2256,24 +2265,24 @@
         <v>34</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="63">
-        <v>44616</v>
+        <v>44602</v>
       </c>
       <c r="F9" s="63">
-        <v>44619</v>
+        <v>44612</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2334,13 +2343,17 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="63">
-        <v>44612</v>
+        <v>44602</v>
       </c>
       <c r="F10" s="63">
         <v>44616</v>
@@ -2406,13 +2419,17 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="63">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="F11" s="63">
         <v>44618</v>
@@ -2992,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="29"/>
@@ -3934,7 +3951,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="74" t="s">
         <v>38</v>
@@ -4243,11 +4260,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4255,6 +4267,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D35">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4EF566-B53D-486E-B875-F0A3C08FE0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1115494-6120-47C6-A188-C298C638C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="420" windowWidth="21075" windowHeight="15600" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1860" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Gantt chart Phase 1, Git Wiki</t>
+  </si>
+  <si>
+    <t>Mansoor, Kelvin</t>
   </si>
 </sst>
 </file>
@@ -901,6 +904,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -908,18 +923,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1490,7 +1493,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1535,118 +1538,118 @@
       <c r="B3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <f ca="1">TODAY()</f>
         <v>44977</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f ca="1">I5</f>
         <v>44977</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f ca="1">P5</f>
         <v>44984</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f ca="1">W5</f>
         <v>44991</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f ca="1">AD5</f>
         <v>44998</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f ca="1">AK5</f>
         <v>45005</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f ca="1">AR5</f>
         <v>45012</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f ca="1">AY5</f>
         <v>45019</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f ca="1">BF5</f>
         <v>45026</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
@@ -2268,7 +2271,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2423,7 +2426,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -4260,6 +4263,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4267,11 +4275,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D35">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1115494-6120-47C6-A188-C298C638C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C570BE7-D6EE-4625-B677-C50A24E628FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="1860" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,7 +1493,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C570BE7-D6EE-4625-B677-C50A24E628FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCCCA8-BCF4-4019-B0E6-A37FE6B7A0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1860" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="2805" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Mansoor, Kelvin</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File IO. Reading xlse data, and Display data </t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1499,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1550,7 @@
       <c r="D3" s="90"/>
       <c r="E3" s="88">
         <f ca="1">TODAY()</f>
-        <v>44977</v>
+        <v>44990</v>
       </c>
       <c r="F3" s="88"/>
     </row>
@@ -1561,7 +1567,7 @@
       </c>
       <c r="I4" s="85">
         <f ca="1">I5</f>
-        <v>44977</v>
+        <v>44991</v>
       </c>
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
@@ -1571,7 +1577,7 @@
       <c r="O4" s="87"/>
       <c r="P4" s="85">
         <f ca="1">P5</f>
-        <v>44984</v>
+        <v>44998</v>
       </c>
       <c r="Q4" s="86"/>
       <c r="R4" s="86"/>
@@ -1581,7 +1587,7 @@
       <c r="V4" s="87"/>
       <c r="W4" s="85">
         <f ca="1">W5</f>
-        <v>44991</v>
+        <v>45005</v>
       </c>
       <c r="X4" s="86"/>
       <c r="Y4" s="86"/>
@@ -1591,7 +1597,7 @@
       <c r="AC4" s="87"/>
       <c r="AD4" s="85">
         <f ca="1">AD5</f>
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="AE4" s="86"/>
       <c r="AF4" s="86"/>
@@ -1601,7 +1607,7 @@
       <c r="AJ4" s="87"/>
       <c r="AK4" s="85">
         <f ca="1">AK5</f>
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="AL4" s="86"/>
       <c r="AM4" s="86"/>
@@ -1611,7 +1617,7 @@
       <c r="AQ4" s="87"/>
       <c r="AR4" s="85">
         <f ca="1">AR5</f>
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="AS4" s="86"/>
       <c r="AT4" s="86"/>
@@ -1621,7 +1627,7 @@
       <c r="AX4" s="87"/>
       <c r="AY4" s="85">
         <f ca="1">AY5</f>
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="AZ4" s="86"/>
       <c r="BA4" s="86"/>
@@ -1631,7 +1637,7 @@
       <c r="BE4" s="87"/>
       <c r="BF4" s="85">
         <f ca="1">BF5</f>
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="BG4" s="86"/>
       <c r="BH4" s="86"/>
@@ -1652,227 +1658,227 @@
       <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44977</v>
+        <v>44991</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44978</v>
+        <v>44992</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44979</v>
+        <v>44993</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44980</v>
+        <v>44994</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44981</v>
+        <v>44995</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44982</v>
+        <v>44996</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44983</v>
+        <v>44997</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44984</v>
+        <v>44998</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44986</v>
+        <v>45000</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44988</v>
+        <v>45002</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44989</v>
+        <v>45003</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44990</v>
+        <v>45004</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>44991</v>
+        <v>45005</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>45008</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>45009</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45011</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45015</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45018</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45022</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45024</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45025</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45029</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45030</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45031</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45032</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45023</v>
+        <v>45037</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45038</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45025</v>
+        <v>45039</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45027</v>
+        <v>45041</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45043</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45031</v>
+        <v>45045</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45032</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2571,13 +2577,17 @@
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" s="27">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E13" s="64">
-        <v>44620</v>
+        <v>44623</v>
       </c>
       <c r="F13" s="64">
         <v>44625</v>
@@ -2585,7 +2595,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCCCA8-BCF4-4019-B0E6-A37FE6B7A0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E444E7-9875-4F27-ADAE-70A4B477C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2805" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -910,6 +910,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -922,13 +929,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1499,7 +1499,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1544,118 +1544,118 @@
       <c r="B3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
         <f ca="1">TODAY()</f>
-        <v>44990</v>
-      </c>
-      <c r="F3" s="88"/>
+        <v>44991</v>
+      </c>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f ca="1">I5</f>
         <v>44991</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f ca="1">P5</f>
         <v>44998</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f ca="1">W5</f>
         <v>45005</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f ca="1">AD5</f>
         <v>45012</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f ca="1">AK5</f>
         <v>45019</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f ca="1">AR5</f>
         <v>45026</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f ca="1">AY5</f>
         <v>45033</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f ca="1">BF5</f>
         <v>45040</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44991</v>
@@ -2359,7 +2359,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="63">
         <v>44602</v>
@@ -4273,11 +4273,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4285,6 +4280,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D35">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E444E7-9875-4F27-ADAE-70A4B477C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1443E90-6806-48B2-8F1C-5F7AC125011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,10 +229,10 @@
     <t>Mansoor, Kelvin</t>
   </si>
   <si>
-    <t>Kelvin</t>
-  </si>
-  <si>
     <t xml:space="preserve">File IO. Reading xlse data, and Display data </t>
+  </si>
+  <si>
+    <t>Kelvin, Mansoor</t>
   </si>
 </sst>
 </file>
@@ -910,6 +910,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -917,18 +929,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1499,7 +1499,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1544,118 +1544,118 @@
       <c r="B3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <f ca="1">TODAY()</f>
         <v>44991</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f ca="1">I5</f>
         <v>44991</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f ca="1">P5</f>
         <v>44998</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f ca="1">W5</f>
         <v>45005</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f ca="1">AD5</f>
         <v>45012</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f ca="1">AK5</f>
         <v>45019</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f ca="1">AR5</f>
         <v>45026</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f ca="1">AY5</f>
         <v>45033</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f ca="1">BF5</f>
         <v>45040</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44991</v>
@@ -2578,10 +2578,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
       <c r="B13" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="82" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="27">
         <v>0.99</v>
@@ -4273,6 +4273,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4280,11 +4285,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D35">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1443E90-6806-48B2-8F1C-5F7AC125011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE30515-9BB3-400A-80F6-ABC12ADEE752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -233,6 +233,48 @@
   </si>
   <si>
     <t>Kelvin, Mansoor</t>
+  </si>
+  <si>
+    <t>Update: Readme, Project Plan, Project Artifact. Create WiKi for new Snapshot</t>
+  </si>
+  <si>
+    <t>Web: Final Touchup and Refactor</t>
+  </si>
+  <si>
+    <t>User Testing and Bug Finding</t>
+  </si>
+  <si>
+    <t>Web: User Testing and Bug Finding</t>
+  </si>
+  <si>
+    <t>Final Touchups and Refactor</t>
+  </si>
+  <si>
+    <t>Code Implementation of Algorithm</t>
+  </si>
+  <si>
+    <t>Code Random and Display</t>
+  </si>
+  <si>
+    <t>A* Pathfindig Visualization</t>
+  </si>
+  <si>
+    <t>Web: Code Implementation of Algorithm</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Deployment </t>
+  </si>
+  <si>
+    <t>Project implementation</t>
+  </si>
+  <si>
+    <t>Web: UI Design</t>
+  </si>
+  <si>
+    <t>Adding Node</t>
   </si>
 </sst>
 </file>
@@ -910,6 +952,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -922,13 +971,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1499,7 +1541,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1544,118 +1586,118 @@
       <c r="B3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
         <f ca="1">TODAY()</f>
-        <v>44991</v>
-      </c>
-      <c r="F3" s="88"/>
+        <v>44992</v>
+      </c>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f ca="1">I5</f>
         <v>44991</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f ca="1">P5</f>
         <v>44998</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f ca="1">W5</f>
         <v>45005</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f ca="1">AD5</f>
         <v>45012</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f ca="1">AK5</f>
         <v>45019</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f ca="1">AR5</f>
         <v>45026</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f ca="1">AY5</f>
         <v>45033</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f ca="1">BF5</f>
         <v>45040</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44991</v>
@@ -2656,7 +2698,9 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
-      <c r="B14" s="81"/>
+      <c r="B14" s="81" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="82"/>
       <c r="D14" s="27">
         <v>0</v>
@@ -2728,7 +2772,9 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="81"/>
+      <c r="B15" s="81" t="s">
+        <v>59</v>
+      </c>
       <c r="C15" s="82"/>
       <c r="D15" s="27">
         <v>0</v>
@@ -2800,7 +2846,9 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59"/>
-      <c r="B16" s="81"/>
+      <c r="B16" s="81" t="s">
+        <v>60</v>
+      </c>
       <c r="C16" s="82"/>
       <c r="D16" s="27">
         <v>0</v>
@@ -2872,7 +2920,9 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59"/>
-      <c r="B17" s="81"/>
+      <c r="B17" s="81" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="82"/>
       <c r="D17" s="27">
         <v>0</v>
@@ -2944,8 +2994,12 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
+      <c r="B18" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" s="27">
         <v>0</v>
       </c>
@@ -3092,7 +3146,9 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
-      <c r="B20" s="83"/>
+      <c r="B20" s="83" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="72"/>
       <c r="D20" s="32">
         <v>0</v>
@@ -3239,7 +3295,9 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
-      <c r="B22" s="83"/>
+      <c r="B22" s="83" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="72"/>
       <c r="D22" s="32">
         <v>0</v>
@@ -3311,7 +3369,9 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
-      <c r="B23" s="83"/>
+      <c r="B23" s="83" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="72"/>
       <c r="D23" s="32">
         <v>0</v>
@@ -3383,7 +3443,9 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="83" t="s">
+        <v>63</v>
+      </c>
       <c r="C24" s="72"/>
       <c r="D24" s="32">
         <v>0</v>
@@ -3455,7 +3517,9 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="83"/>
+      <c r="B25" s="83" t="s">
+        <v>64</v>
+      </c>
       <c r="C25" s="72"/>
       <c r="D25" s="32">
         <v>0</v>
@@ -3527,8 +3591,12 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="32">
         <v>0</v>
       </c>
@@ -3672,7 +3740,9 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
-      <c r="B28" s="84"/>
+      <c r="B28" s="84" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" s="74"/>
       <c r="D28" s="37">
         <v>0</v>
@@ -3747,7 +3817,9 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
-      <c r="B29" s="84"/>
+      <c r="B29" s="84" t="s">
+        <v>54</v>
+      </c>
       <c r="C29" s="74"/>
       <c r="D29" s="37">
         <v>0</v>
@@ -3819,7 +3891,9 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
-      <c r="B30" s="84"/>
+      <c r="B30" s="84" t="s">
+        <v>55</v>
+      </c>
       <c r="C30" s="74"/>
       <c r="D30" s="37">
         <v>0</v>
@@ -3891,7 +3965,9 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
-      <c r="B31" s="84"/>
+      <c r="B31" s="84" t="s">
+        <v>56</v>
+      </c>
       <c r="C31" s="74"/>
       <c r="D31" s="37">
         <v>0</v>
@@ -4273,11 +4349,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4285,6 +4356,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D35">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE30515-9BB3-400A-80F6-ABC12ADEE752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86E11B-A9CC-446B-BD5B-422C5BBDD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -952,6 +952,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -959,18 +971,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1540,8 +1540,8 @@
   <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1586,118 +1586,118 @@
       <c r="B3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <f ca="1">TODAY()</f>
         <v>44992</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f ca="1">I5</f>
         <v>44991</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f ca="1">P5</f>
         <v>44998</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f ca="1">W5</f>
         <v>45005</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f ca="1">AD5</f>
         <v>45012</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f ca="1">AK5</f>
         <v>45019</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f ca="1">AR5</f>
         <v>45026</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f ca="1">AY5</f>
         <v>45033</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f ca="1">BF5</f>
         <v>45040</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44991</v>
@@ -2701,7 +2701,9 @@
       <c r="B14" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="82" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="27">
         <v>0</v>
       </c>
@@ -2775,7 +2777,9 @@
       <c r="B15" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="82" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="27">
         <v>0</v>
       </c>
@@ -2849,7 +2853,9 @@
       <c r="B16" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="82" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="27">
         <v>0</v>
       </c>
@@ -2923,7 +2929,9 @@
       <c r="B17" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="82" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="27">
         <v>0</v>
       </c>
@@ -3149,7 +3157,9 @@
       <c r="B20" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="72" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="32">
         <v>0</v>
       </c>
@@ -3224,7 +3234,9 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="72" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="32">
         <v>0</v>
       </c>
@@ -3298,7 +3310,9 @@
       <c r="B22" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="72" t="s">
+        <v>46</v>
+      </c>
       <c r="D22" s="32">
         <v>0</v>
       </c>
@@ -3372,7 +3386,9 @@
       <c r="B23" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="72" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="32">
         <v>0</v>
       </c>
@@ -3446,7 +3462,9 @@
       <c r="B24" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="72" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="32">
         <v>0</v>
       </c>
@@ -3520,7 +3538,9 @@
       <c r="B25" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="72" t="s">
+        <v>46</v>
+      </c>
       <c r="D25" s="32">
         <v>0</v>
       </c>
@@ -3743,7 +3763,9 @@
       <c r="B28" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="37">
         <v>0</v>
       </c>
@@ -3820,7 +3842,9 @@
       <c r="B29" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="D29" s="37">
         <v>0</v>
       </c>
@@ -3894,7 +3918,9 @@
       <c r="B30" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="D30" s="37">
         <v>0</v>
       </c>
@@ -3968,7 +3994,9 @@
       <c r="B31" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="D31" s="37">
         <v>0</v>
       </c>
@@ -4349,6 +4377,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4356,11 +4389,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D35">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86E11B-A9CC-446B-BD5B-422C5BBDD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C570BE7-D6EE-4625-B677-C50A24E628FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1860" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -227,54 +227,6 @@
   </si>
   <si>
     <t>Mansoor, Kelvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File IO. Reading xlse data, and Display data </t>
-  </si>
-  <si>
-    <t>Kelvin, Mansoor</t>
-  </si>
-  <si>
-    <t>Update: Readme, Project Plan, Project Artifact. Create WiKi for new Snapshot</t>
-  </si>
-  <si>
-    <t>Web: Final Touchup and Refactor</t>
-  </si>
-  <si>
-    <t>User Testing and Bug Finding</t>
-  </si>
-  <si>
-    <t>Web: User Testing and Bug Finding</t>
-  </si>
-  <si>
-    <t>Final Touchups and Refactor</t>
-  </si>
-  <si>
-    <t>Code Implementation of Algorithm</t>
-  </si>
-  <si>
-    <t>Code Random and Display</t>
-  </si>
-  <si>
-    <t>A* Pathfindig Visualization</t>
-  </si>
-  <si>
-    <t>Web: Code Implementation of Algorithm</t>
-  </si>
-  <si>
-    <t>UI Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Deployment </t>
-  </si>
-  <si>
-    <t>Project implementation</t>
-  </si>
-  <si>
-    <t>Web: UI Design</t>
-  </si>
-  <si>
-    <t>Adding Node</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1492,8 @@
   <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1544,7 @@
       <c r="D3" s="90"/>
       <c r="E3" s="88">
         <f ca="1">TODAY()</f>
-        <v>44992</v>
+        <v>44977</v>
       </c>
       <c r="F3" s="88"/>
     </row>
@@ -1609,7 +1561,7 @@
       </c>
       <c r="I4" s="85">
         <f ca="1">I5</f>
-        <v>44991</v>
+        <v>44977</v>
       </c>
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
@@ -1619,7 +1571,7 @@
       <c r="O4" s="87"/>
       <c r="P4" s="85">
         <f ca="1">P5</f>
-        <v>44998</v>
+        <v>44984</v>
       </c>
       <c r="Q4" s="86"/>
       <c r="R4" s="86"/>
@@ -1629,7 +1581,7 @@
       <c r="V4" s="87"/>
       <c r="W4" s="85">
         <f ca="1">W5</f>
-        <v>45005</v>
+        <v>44991</v>
       </c>
       <c r="X4" s="86"/>
       <c r="Y4" s="86"/>
@@ -1639,7 +1591,7 @@
       <c r="AC4" s="87"/>
       <c r="AD4" s="85">
         <f ca="1">AD5</f>
-        <v>45012</v>
+        <v>44998</v>
       </c>
       <c r="AE4" s="86"/>
       <c r="AF4" s="86"/>
@@ -1649,7 +1601,7 @@
       <c r="AJ4" s="87"/>
       <c r="AK4" s="85">
         <f ca="1">AK5</f>
-        <v>45019</v>
+        <v>45005</v>
       </c>
       <c r="AL4" s="86"/>
       <c r="AM4" s="86"/>
@@ -1659,7 +1611,7 @@
       <c r="AQ4" s="87"/>
       <c r="AR4" s="85">
         <f ca="1">AR5</f>
-        <v>45026</v>
+        <v>45012</v>
       </c>
       <c r="AS4" s="86"/>
       <c r="AT4" s="86"/>
@@ -1669,7 +1621,7 @@
       <c r="AX4" s="87"/>
       <c r="AY4" s="85">
         <f ca="1">AY5</f>
-        <v>45033</v>
+        <v>45019</v>
       </c>
       <c r="AZ4" s="86"/>
       <c r="BA4" s="86"/>
@@ -1679,7 +1631,7 @@
       <c r="BE4" s="87"/>
       <c r="BF4" s="85">
         <f ca="1">BF5</f>
-        <v>45040</v>
+        <v>45026</v>
       </c>
       <c r="BG4" s="86"/>
       <c r="BH4" s="86"/>
@@ -1700,227 +1652,227 @@
       <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44991</v>
+        <v>44977</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44992</v>
+        <v>44978</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44993</v>
+        <v>44979</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>44980</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>44981</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>44982</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>44983</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44998</v>
+        <v>44984</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44999</v>
+        <v>44985</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>44986</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>44987</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>44988</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>44989</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>44990</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45005</v>
+        <v>44991</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>44993</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>44994</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>44995</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>44996</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>44997</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45012</v>
+        <v>44998</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45000</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45001</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45002</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45003</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45004</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45019</v>
+        <v>45005</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45007</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45008</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45009</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45010</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45011</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45026</v>
+        <v>45012</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45014</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45015</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45016</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45017</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45018</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45033</v>
+        <v>45019</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45034</v>
+        <v>45020</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45035</v>
+        <v>45021</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45022</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45037</v>
+        <v>45023</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45038</v>
+        <v>45024</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45039</v>
+        <v>45025</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45040</v>
+        <v>45026</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45041</v>
+        <v>45027</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45042</v>
+        <v>45028</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45029</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45030</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45045</v>
+        <v>45031</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45046</v>
+        <v>45032</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2353,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="63">
         <v>44602</v>
@@ -2619,17 +2571,13 @@
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>52</v>
-      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="27">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E13" s="64">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="F13" s="64">
         <v>44625</v>
@@ -2637,7 +2585,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2698,12 +2646,8 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
-      <c r="B14" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>46</v>
-      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="27">
         <v>0</v>
       </c>
@@ -2774,12 +2718,8 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>46</v>
-      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="27">
         <v>0</v>
       </c>
@@ -2850,12 +2790,8 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59"/>
-      <c r="B16" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>46</v>
-      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="27">
         <v>0</v>
       </c>
@@ -2926,12 +2862,8 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59"/>
-      <c r="B17" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>46</v>
-      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="27">
         <v>0</v>
       </c>
@@ -3002,12 +2934,8 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
-      <c r="B18" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="82" t="s">
-        <v>38</v>
-      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="27">
         <v>0</v>
       </c>
@@ -3154,12 +3082,8 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
-      <c r="B20" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>46</v>
-      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="32">
         <v>0</v>
       </c>
@@ -3234,9 +3158,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="72" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="72"/>
       <c r="D21" s="32">
         <v>0</v>
       </c>
@@ -3307,12 +3229,8 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
-      <c r="B22" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>46</v>
-      </c>
+      <c r="B22" s="83"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="32">
         <v>0</v>
       </c>
@@ -3383,12 +3301,8 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
-      <c r="B23" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>46</v>
-      </c>
+      <c r="B23" s="83"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="32">
         <v>0</v>
       </c>
@@ -3459,12 +3373,8 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>46</v>
-      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="32">
         <v>0</v>
       </c>
@@ -3535,12 +3445,8 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>46</v>
-      </c>
+      <c r="B25" s="83"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="32">
         <v>0</v>
       </c>
@@ -3611,12 +3517,8 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
-      <c r="B26" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>38</v>
-      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="32">
         <v>0</v>
       </c>
@@ -3760,12 +3662,8 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
-      <c r="B28" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>46</v>
-      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="37">
         <v>0</v>
       </c>
@@ -3839,12 +3737,8 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
-      <c r="B29" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>46</v>
-      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="37">
         <v>0</v>
       </c>
@@ -3915,12 +3809,8 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
-      <c r="B30" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>46</v>
-      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="37">
         <v>0</v>
       </c>
@@ -3991,12 +3881,8 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
-      <c r="B31" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>46</v>
-      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="37">
         <v>0</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C570BE7-D6EE-4625-B677-C50A24E628FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E084E16-8282-A645-8F67-26B62FEE919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1860" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,12 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Insert new rows ABOVE this one</t>
-  </si>
-  <si>
-    <t>Project Start:</t>
   </si>
   <si>
     <t>PROGRESS</t>
@@ -193,18 +190,9 @@
     <t>All</t>
   </si>
   <si>
-    <t>Senior Project Day</t>
-  </si>
-  <si>
     <t>Project Snapshot 1</t>
   </si>
   <si>
-    <t>Project Snapshot 2</t>
-  </si>
-  <si>
-    <t>Project Snapshot 3</t>
-  </si>
-  <si>
     <t>Update: Readme, project plan, project artifacts. Create Wiki for new snapshot</t>
   </si>
   <si>
@@ -227,6 +215,75 @@
   </si>
   <si>
     <t>Mansoor, Kelvin</t>
+  </si>
+  <si>
+    <t>Importing libraries</t>
+  </si>
+  <si>
+    <t>data input</t>
+  </si>
+  <si>
+    <t>choose data processing methods</t>
+  </si>
+  <si>
+    <t>check data</t>
+  </si>
+  <si>
+    <t>Project Snapshot 2- working with numbers</t>
+  </si>
+  <si>
+    <t>understand columns (correlation)</t>
+  </si>
+  <si>
+    <t>exploratory data anaylsis (visualization)</t>
+  </si>
+  <si>
+    <t>Project Poster submission</t>
+  </si>
+  <si>
+    <t>Senior Project Day/ Final project implementation</t>
+  </si>
+  <si>
+    <t>Project Current Day:</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>make final UI</t>
+  </si>
+  <si>
+    <t>test with actual data</t>
+  </si>
+  <si>
+    <t>Research Github pages</t>
+  </si>
+  <si>
+    <t>relearn Javascript, HTML, CSS or Django/flask</t>
+  </si>
+  <si>
+    <t>make website efficient</t>
+  </si>
+  <si>
+    <t>deployment testing</t>
+  </si>
+  <si>
+    <t>Project Snapshot 3- Data processing and modeling</t>
+  </si>
+  <si>
+    <t>Train Test split</t>
+  </si>
+  <si>
+    <t>Model fitting</t>
+  </si>
+  <si>
+    <t>start front-end programming debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> back-end programming/libraries</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
@@ -240,7 +297,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +487,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +572,18 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -662,7 +738,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -790,9 +866,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +996,15 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1489,414 +1571,414 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59"/>
-      <c r="B1" s="79" t="s">
-        <v>44</v>
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58"/>
+      <c r="B1" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="47"/>
+      <c r="F1" s="46"/>
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="87">
+        <f ca="1">TODAY()</f>
+        <v>44994</v>
+      </c>
+      <c r="F3" s="87"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
-        <f ca="1">TODAY()</f>
-        <v>44977</v>
-      </c>
-      <c r="F3" s="88"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="90"/>
+      <c r="C4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="84">
         <f ca="1">I5</f>
-        <v>44977</v>
-      </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+        <v>44991</v>
+      </c>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="84">
         <f ca="1">P5</f>
-        <v>44984</v>
-      </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+        <v>44998</v>
+      </c>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="84">
         <f ca="1">W5</f>
-        <v>44991</v>
-      </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+        <v>45005</v>
+      </c>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="84">
         <f ca="1">AD5</f>
-        <v>44998</v>
-      </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+        <v>45012</v>
+      </c>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="84">
         <f ca="1">AK5</f>
-        <v>45005</v>
-      </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+        <v>45019</v>
+      </c>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="84">
         <f ca="1">AR5</f>
-        <v>45012</v>
-      </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+        <v>45026</v>
+      </c>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="84">
         <f ca="1">AY5</f>
-        <v>45019</v>
-      </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+        <v>45033</v>
+      </c>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="85"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="84">
         <f ca="1">BF5</f>
-        <v>45026</v>
-      </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+        <v>45040</v>
+      </c>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="85"/>
+      <c r="BI4" s="85"/>
+      <c r="BJ4" s="85"/>
+      <c r="BK4" s="85"/>
+      <c r="BL4" s="86"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44977</v>
+        <v>44991</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44978</v>
+        <v>44992</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44979</v>
+        <v>44993</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44980</v>
+        <v>44994</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44981</v>
+        <v>44995</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44982</v>
+        <v>44996</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44983</v>
+        <v>44997</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44984</v>
+        <v>44998</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44986</v>
+        <v>45000</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44988</v>
+        <v>45002</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44989</v>
+        <v>45003</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44990</v>
+        <v>45004</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>44991</v>
+        <v>45005</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>45008</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>45009</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45011</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45015</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45018</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45022</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45024</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45025</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45029</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45030</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45031</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45032</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45023</v>
+        <v>45037</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45038</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45025</v>
+        <v>45039</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45027</v>
+        <v>45041</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45043</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45031</v>
+        <v>45045</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>32</v>
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2123,11 +2205,11 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="62"/>
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="61"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2190,20 +2272,22 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>33</v>
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="68"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="67"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>44983</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H35" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H37" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2263,24 +2347,24 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>50</v>
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="63">
-        <v>44602</v>
-      </c>
-      <c r="F9" s="63">
-        <v>44612</v>
+      <c r="E9" s="62">
+        <v>44967</v>
+      </c>
+      <c r="F9" s="62">
+        <v>44977</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
@@ -2344,32 +2428,32 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>46</v>
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="B10" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="22">
         <v>0.5</v>
       </c>
-      <c r="E10" s="63">
-        <v>44602</v>
-      </c>
-      <c r="F10" s="63">
-        <v>44616</v>
+      <c r="E10" s="62">
+        <v>44967</v>
+      </c>
+      <c r="F10" s="62">
+        <v>44997</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -2420,22 +2504,22 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>50</v>
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="63">
-        <v>44602</v>
-      </c>
-      <c r="F11" s="63">
-        <v>44618</v>
+      <c r="E11" s="62">
+        <v>44967</v>
+      </c>
+      <c r="F11" s="62">
+        <v>44983</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2496,21 +2580,25 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>35</v>
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="70"/>
+        <v>51</v>
+      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="25">
+        <v>44984</v>
+      </c>
+      <c r="F12" s="26">
+        <v>45004</v>
+      </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17" t="str">
+      <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>21</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2569,31 +2657,33 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="81"/>
       <c r="D13" s="27">
         <v>0</v>
       </c>
-      <c r="E13" s="64">
-        <v>44620</v>
-      </c>
-      <c r="F13" s="64">
-        <v>44625</v>
+      <c r="E13" s="63">
+        <v>44985</v>
+      </c>
+      <c r="F13" s="63">
+        <v>44997</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
@@ -2644,28 +2734,30 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="81"/>
       <c r="D14" s="27">
         <v>0</v>
       </c>
-      <c r="E14" s="64">
-        <v>44625</v>
-      </c>
-      <c r="F14" s="64">
-        <v>44632</v>
+      <c r="E14" s="63">
+        <v>44990</v>
+      </c>
+      <c r="F14" s="63">
+        <v>44997</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -2716,18 +2808,20 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="81"/>
       <c r="D15" s="27">
         <v>0</v>
       </c>
-      <c r="E15" s="64">
-        <v>44625</v>
-      </c>
-      <c r="F15" s="64">
-        <v>44629</v>
+      <c r="E15" s="63">
+        <v>44997</v>
+      </c>
+      <c r="F15" s="63">
+        <v>45004</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2737,14 +2831,14 @@
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="44"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
@@ -2788,18 +2882,20 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
+      <c r="B16" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="81"/>
       <c r="D16" s="27">
         <v>0</v>
       </c>
-      <c r="E16" s="64">
-        <v>44629</v>
-      </c>
-      <c r="F16" s="64">
-        <v>44634</v>
+      <c r="E16" s="63">
+        <v>45000</v>
+      </c>
+      <c r="F16" s="63">
+        <v>45004</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -2812,11 +2908,11 @@
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
@@ -2860,18 +2956,20 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="81"/>
       <c r="D17" s="27">
         <v>0</v>
       </c>
-      <c r="E17" s="64">
-        <v>44620</v>
-      </c>
-      <c r="F17" s="64">
-        <v>44624</v>
+      <c r="E17" s="63">
+        <v>45002</v>
+      </c>
+      <c r="F17" s="63">
+        <v>45004</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -2886,9 +2984,9 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
@@ -2932,23 +3030,25 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="81"/>
       <c r="D18" s="27">
         <v>0</v>
       </c>
-      <c r="E18" s="64">
-        <v>44634</v>
-      </c>
-      <c r="F18" s="64">
-        <v>44640</v>
+      <c r="E18" s="63">
+        <v>44997</v>
+      </c>
+      <c r="F18" s="63">
+        <v>45004</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -2956,14 +3056,14 @@
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
@@ -3007,21 +3107,25 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
-        <v>25</v>
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="71"/>
+        <v>64</v>
+      </c>
+      <c r="C19" s="70"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="30">
+        <v>45006</v>
+      </c>
+      <c r="F19" s="31">
+        <v>45018</v>
+      </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="17" t="str">
+      <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3080,23 +3184,25 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="72"/>
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="71"/>
       <c r="D20" s="32">
         <v>0</v>
       </c>
-      <c r="E20" s="65">
-        <v>44642</v>
-      </c>
-      <c r="F20" s="65">
-        <v>44646</v>
+      <c r="E20" s="64">
+        <v>45007</v>
+      </c>
+      <c r="F20" s="64">
+        <v>45018</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
@@ -3155,18 +3261,20 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="72"/>
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="71"/>
       <c r="D21" s="32">
         <v>0</v>
       </c>
-      <c r="E21" s="65">
-        <v>44641</v>
-      </c>
-      <c r="F21" s="65">
-        <v>44642</v>
+      <c r="E21" s="64">
+        <v>45006</v>
+      </c>
+      <c r="F21" s="64">
+        <v>45018</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -3227,18 +3335,20 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="72"/>
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="71"/>
       <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="65">
-        <v>44641</v>
-      </c>
-      <c r="F22" s="65">
-        <v>44647</v>
+      <c r="E22" s="64">
+        <v>45006</v>
+      </c>
+      <c r="F22" s="64">
+        <v>45018</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -3299,18 +3409,20 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="72"/>
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="71"/>
       <c r="D23" s="32">
         <v>0</v>
       </c>
-      <c r="E23" s="65">
-        <v>44641</v>
-      </c>
-      <c r="F23" s="65">
-        <v>44643</v>
+      <c r="E23" s="64">
+        <v>45006</v>
+      </c>
+      <c r="F23" s="64">
+        <v>45018</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -3371,18 +3483,20 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="72"/>
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="71"/>
       <c r="D24" s="32">
         <v>0</v>
       </c>
-      <c r="E24" s="65">
-        <v>44643</v>
-      </c>
-      <c r="F24" s="65">
-        <v>44647</v>
+      <c r="E24" s="64">
+        <v>45006</v>
+      </c>
+      <c r="F24" s="64">
+        <v>45018</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -3443,18 +3557,20 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="72"/>
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="71"/>
       <c r="D25" s="32">
         <v>0</v>
       </c>
-      <c r="E25" s="65">
-        <v>44647</v>
-      </c>
-      <c r="F25" s="65">
-        <v>44652</v>
+      <c r="E25" s="64">
+        <v>45008</v>
+      </c>
+      <c r="F25" s="64">
+        <v>45018</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -3515,18 +3631,20 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="72"/>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="71"/>
       <c r="D26" s="32">
         <v>0</v>
       </c>
-      <c r="E26" s="65">
-        <v>44646</v>
-      </c>
-      <c r="F26" s="65">
-        <v>44654</v>
+      <c r="E26" s="64">
+        <v>45012</v>
+      </c>
+      <c r="F26" s="64">
+        <v>45018</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -3587,22 +3705,23 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="64">
+        <v>45011</v>
+      </c>
+      <c r="F27" s="64">
+        <v>45018</v>
+      </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H27" s="17"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -3660,23 +3779,25 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="37">
-        <v>0</v>
-      </c>
-      <c r="E28" s="66">
-        <v>44655</v>
-      </c>
-      <c r="F28" s="66">
-        <v>44661</v>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35">
+        <v>45019</v>
+      </c>
+      <c r="F28" s="36">
+        <v>45032</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3735,21 +3856,26 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="74"/>
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="73"/>
       <c r="D29" s="37">
         <v>0</v>
       </c>
-      <c r="E29" s="66">
-        <v>44655</v>
-      </c>
-      <c r="F29" s="66">
-        <v>44661</v>
+      <c r="E29" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F29" s="65">
+        <v>45026</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
@@ -3807,18 +3933,20 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="74"/>
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="73"/>
       <c r="D30" s="37">
         <v>0</v>
       </c>
-      <c r="E30" s="66">
-        <v>44661</v>
-      </c>
-      <c r="F30" s="66">
-        <v>44664</v>
+      <c r="E30" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F30" s="65">
+        <v>45026</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -3879,18 +4007,20 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="74"/>
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="73"/>
       <c r="D31" s="37">
         <v>0</v>
       </c>
-      <c r="E31" s="66">
-        <v>44661</v>
-      </c>
-      <c r="F31" s="66">
-        <v>44664</v>
+      <c r="E31" s="65">
+        <v>45026</v>
+      </c>
+      <c r="F31" s="65">
+        <v>45029</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -3951,22 +4081,20 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>38</v>
-      </c>
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="73"/>
       <c r="D32" s="37">
         <v>0</v>
       </c>
-      <c r="E32" s="66">
-        <v>44664</v>
-      </c>
-      <c r="F32" s="66">
-        <v>44668</v>
+      <c r="E32" s="65">
+        <v>45026</v>
+      </c>
+      <c r="F32" s="65">
+        <v>45029</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -4027,29 +4155,25 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="84" t="s">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="74" t="s">
-        <v>38</v>
+      <c r="C33" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="D33" s="37">
         <v>0</v>
       </c>
-      <c r="E33" s="66">
-        <v>44317</v>
-      </c>
-      <c r="F33" s="66">
-        <f>E33+1</f>
-        <v>44318</v>
+      <c r="E33" s="65">
+        <v>45029</v>
+      </c>
+      <c r="F33" s="65">
+        <v>45033</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="H33" s="17"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
@@ -4107,20 +4231,25 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="37">
+        <v>0</v>
+      </c>
+      <c r="E34" s="65">
+        <v>45029</v>
+      </c>
+      <c r="F34" s="65">
+        <v>45030</v>
+      </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H34" s="17"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
@@ -4178,88 +4307,238 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="37">
+        <v>0</v>
+      </c>
+      <c r="E35" s="65">
+        <v>45047</v>
+      </c>
+      <c r="F35" s="65">
+        <v>45051</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="44"/>
+      <c r="BE35" s="44"/>
+      <c r="BF35" s="44"/>
+      <c r="BG35" s="44"/>
+      <c r="BH35" s="44"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
+      <c r="BL35" s="44"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43" t="str">
+      <c r="B36" s="75"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="46"/>
-      <c r="AN35" s="46"/>
-      <c r="AO35" s="46"/>
-      <c r="AP35" s="46"/>
-      <c r="AQ35" s="46"/>
-      <c r="AR35" s="46"/>
-      <c r="AS35" s="46"/>
-      <c r="AT35" s="46"/>
-      <c r="AU35" s="46"/>
-      <c r="AV35" s="46"/>
-      <c r="AW35" s="46"/>
-      <c r="AX35" s="46"/>
-      <c r="AY35" s="46"/>
-      <c r="AZ35" s="46"/>
-      <c r="BA35" s="46"/>
-      <c r="BB35" s="46"/>
-      <c r="BC35" s="46"/>
-      <c r="BD35" s="46"/>
-      <c r="BE35" s="46"/>
-      <c r="BF35" s="46"/>
-      <c r="BG35" s="46"/>
-      <c r="BH35" s="46"/>
-      <c r="BI35" s="46"/>
-      <c r="BJ35" s="46"/>
-      <c r="BK35" s="46"/>
-      <c r="BL35" s="46"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="F37" s="60"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="15"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="44"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="44"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="45"/>
+      <c r="BA37" s="45"/>
+      <c r="BB37" s="45"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45"/>
+      <c r="BE37" s="45"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="45"/>
+      <c r="BH37" s="45"/>
+      <c r="BI37" s="45"/>
+      <c r="BJ37" s="45"/>
+      <c r="BK37" s="45"/>
+      <c r="BL37" s="45"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="14"/>
+      <c r="F39" s="59"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4277,7 +4556,7 @@
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D37">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4291,12 +4570,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
+  <conditionalFormatting sqref="I5:BL37">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL35">
+  <conditionalFormatting sqref="I7:BL37">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4331,7 +4610,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4345,88 +4624,88 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="55"/>
-    </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="52" t="s">
+    </row>
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E084E16-8282-A645-8F67-26B62FEE919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13696EB-844F-45A4-B513-041FC61A2F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>M. Haidari  K. Westbrook, Kelvin luk</t>
   </si>
   <si>
-    <t>Mansoor</t>
-  </si>
-  <si>
     <t>READme</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Mansoor, Korie</t>
   </si>
 </sst>
 </file>
@@ -977,6 +977,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -988,22 +1004,6 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1574,25 +1574,25 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1604,7 +1604,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1613,125 +1613,125 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87">
+      <c r="C3" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
         <v>44994</v>
       </c>
-      <c r="F3" s="87"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>44991</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="84">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>44998</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="84">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45005</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="84">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45012</v>
       </c>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="84">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45019</v>
       </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="84">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45026</v>
       </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="84">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45033</v>
       </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="84">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45040</v>
       </c>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="86"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44991</v>
@@ -1957,7 +1957,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2347,15 +2347,15 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2428,16 +2428,16 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D10" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="62">
         <v>44967</v>
@@ -2449,11 +2449,11 @@
       <c r="H10" s="17"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -2504,13 +2504,13 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2580,12 +2580,12 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2657,10 +2657,10 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="27">
@@ -2679,11 +2679,11 @@
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
@@ -2734,10 +2734,10 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="27">
@@ -2753,11 +2753,11 @@
       <c r="H14" s="17"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -2808,10 +2808,10 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="27">
@@ -2831,14 +2831,14 @@
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="44"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
@@ -2882,10 +2882,10 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="27">
@@ -2908,11 +2908,11 @@
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
@@ -2956,10 +2956,10 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="27">
@@ -2984,9 +2984,9 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
@@ -3030,10 +3030,10 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="27">
@@ -3056,14 +3056,14 @@
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
@@ -3107,12 +3107,12 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="29"/>
@@ -3184,10 +3184,10 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="32">
@@ -3261,10 +3261,10 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="32">
@@ -3335,10 +3335,10 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="32">
@@ -3409,10 +3409,10 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
@@ -3483,10 +3483,10 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3557,10 +3557,10 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
@@ -3631,10 +3631,10 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
@@ -3705,10 +3705,10 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
@@ -3779,7 +3779,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
@@ -3856,10 +3856,10 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="37">
@@ -3933,10 +3933,10 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="37">
@@ -4007,10 +4007,10 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="37">
@@ -4081,10 +4081,10 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
@@ -4155,7 +4155,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
         <v>39</v>
@@ -4231,10 +4231,10 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="73" t="s">
         <v>37</v>
@@ -4307,10 +4307,10 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
       <c r="B35" s="83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>37</v>
@@ -4386,7 +4386,7 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
@@ -4530,23 +4530,18 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="14"/>
       <c r="F39" s="59"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4554,6 +4549,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">
@@ -4624,31 +4624,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4658,42 +4658,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E084E16-8282-A645-8F67-26B62FEE919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC116F7-A91A-4679-83AF-6EC3FD4CBF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1815" yWindow="2805" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
   </si>
 </sst>
 </file>
@@ -977,6 +980,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -988,22 +1007,6 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1574,25 +1577,25 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1604,7 +1607,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1613,125 +1616,125 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
         <v>44994</v>
       </c>
-      <c r="F3" s="87"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>44991</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="84">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>44998</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="84">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45005</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="84">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45012</v>
       </c>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="84">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45019</v>
       </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="84">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45026</v>
       </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="84">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45033</v>
       </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="84">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45040</v>
       </c>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="86"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44991</v>
@@ -1957,7 +1960,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2272,7 +2275,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
@@ -2428,7 +2431,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
         <v>45</v>
@@ -2449,11 +2452,11 @@
       <c r="H10" s="17"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -2504,7 +2507,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
@@ -2580,7 +2583,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
@@ -2657,7 +2660,7 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
         <v>47</v>
@@ -2679,11 +2682,11 @@
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
@@ -2734,14 +2737,16 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="D14" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="63">
         <v>44990</v>
@@ -2753,11 +2758,11 @@
       <c r="H14" s="17"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -2808,7 +2813,7 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
         <v>52</v>
@@ -2831,14 +2836,14 @@
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="44"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
@@ -2882,7 +2887,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>53</v>
@@ -2908,11 +2913,11 @@
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
@@ -2956,14 +2961,16 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="D17" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="63">
         <v>45002</v>
@@ -2984,9 +2991,9 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
@@ -3030,7 +3037,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
         <v>49</v>
@@ -3056,14 +3063,14 @@
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
@@ -3107,7 +3114,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
@@ -3184,7 +3191,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="82" t="s">
         <v>65</v>
@@ -3261,7 +3268,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
         <v>66</v>
@@ -3335,7 +3342,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
         <v>69</v>
@@ -3409,7 +3416,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
         <v>57</v>
@@ -3483,7 +3490,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
         <v>60</v>
@@ -3557,7 +3564,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
         <v>61</v>
@@ -3631,7 +3638,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
         <v>67</v>
@@ -3705,7 +3712,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="82" t="s">
         <v>68</v>
@@ -3779,7 +3786,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
@@ -3856,7 +3863,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
         <v>62</v>
@@ -3933,7 +3940,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
         <v>58</v>
@@ -4007,7 +4014,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
         <v>63</v>
@@ -4081,7 +4088,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
         <v>59</v>
@@ -4155,7 +4162,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
         <v>39</v>
@@ -4231,7 +4238,7 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
         <v>54</v>
@@ -4307,7 +4314,7 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
       <c r="B35" s="83" t="s">
         <v>55</v>
@@ -4386,7 +4393,7 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
@@ -4457,7 +4464,7 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
@@ -4530,23 +4537,18 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="14"/>
       <c r="F39" s="59"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4554,6 +4556,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">
@@ -4624,31 +4631,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4658,42 +4665,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC116F7-A91A-4679-83AF-6EC3FD4CBF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B364FF-7859-4458-ADDC-E06ABB0C25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1815" yWindow="2805" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>M. Haidari  K. Westbrook, Kelvin luk</t>
   </si>
   <si>
-    <t>Mansoor</t>
-  </si>
-  <si>
     <t>READme</t>
   </si>
   <si>
@@ -286,7 +283,10 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Kelvin</t>
+    <t>Mansoor, Korie</t>
+  </si>
+  <si>
+    <t>Kelvin, Mansoor</t>
   </si>
 </sst>
 </file>
@@ -989,6 +989,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -996,18 +1008,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1577,8 +1577,8 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ9" sqref="BQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,341 +1623,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="C3" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>44994</v>
-      </c>
-      <c r="F3" s="93"/>
+        <v>44997</v>
+      </c>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
-        <v>44991</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>44998</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
-        <v>44998</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>45005</v>
+      </c>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
-        <v>45005</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>45012</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
-        <v>45012</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>45019</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
-        <v>45019</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>45026</v>
+      </c>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
-        <v>45026</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>45033</v>
+      </c>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
-        <v>45033</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>45040</v>
+      </c>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
-        <v>45040</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>45047</v>
+      </c>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44992</v>
+        <v>44999</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>45001</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45004</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44999</v>
+        <v>45006</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45009</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45010</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45011</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45014</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45015</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45016</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45025</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45035</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45036</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45035</v>
+        <v>45042</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45046</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2355,10 +2355,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2434,13 +2434,13 @@
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D10" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="62">
         <v>44967</v>
@@ -2510,10 +2510,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2663,7 +2663,7 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="27">
@@ -2740,7 +2740,7 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="81" t="s">
         <v>70</v>
@@ -2816,7 +2816,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="27">
@@ -2890,7 +2890,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="27">
@@ -2964,7 +2964,7 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>70</v>
@@ -3040,7 +3040,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="27">
@@ -3119,7 +3119,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="29"/>
@@ -3194,7 +3194,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="32">
@@ -3271,7 +3271,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="32">
@@ -3345,7 +3345,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="32">
@@ -3419,7 +3419,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
@@ -3493,7 +3493,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3567,7 +3567,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
@@ -3641,7 +3641,7 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
@@ -3715,7 +3715,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
@@ -3866,7 +3866,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="37">
@@ -3943,7 +3943,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="37">
@@ -4017,7 +4017,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="37">
@@ -4091,7 +4091,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
@@ -4241,7 +4241,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="73" t="s">
         <v>37</v>
@@ -4317,7 +4317,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
       <c r="B35" s="83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>37</v>
@@ -4549,6 +4549,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4556,11 +4561,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B364FF-7859-4458-ADDC-E06ABB0C25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC116F7-A91A-4679-83AF-6EC3FD4CBF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1815" yWindow="2805" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -202,6 +202,9 @@
     <t>M. Haidari  K. Westbrook, Kelvin luk</t>
   </si>
   <si>
+    <t>Mansoor</t>
+  </si>
+  <si>
     <t>READme</t>
   </si>
   <si>
@@ -283,10 +286,7 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Mansoor, Korie</t>
-  </si>
-  <si>
-    <t>Kelvin, Mansoor</t>
+    <t>Kelvin</t>
   </si>
 </sst>
 </file>
@@ -989,6 +989,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1001,13 +1008,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1577,8 +1577,8 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BQ9" sqref="BQ9"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,341 +1623,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="C3" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>44994</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
+        <v>44991</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
+        <f ca="1">P5</f>
         <v>44998</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
-        <f ca="1">P5</f>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
+        <f ca="1">W5</f>
         <v>45005</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
-        <f ca="1">W5</f>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
+        <f ca="1">AD5</f>
         <v>45012</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
-        <f ca="1">AD5</f>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
+        <f ca="1">AK5</f>
         <v>45019</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
-        <f ca="1">AK5</f>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
+        <f ca="1">AR5</f>
         <v>45026</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
-        <f ca="1">AR5</f>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
+        <f ca="1">AY5</f>
         <v>45033</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
-        <f ca="1">AY5</f>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
+        <f ca="1">BF5</f>
         <v>45040</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
-        <f ca="1">BF5</f>
-        <v>45047</v>
-      </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44998</v>
+        <v>44991</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45000</v>
+        <v>44993</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>44994</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>44995</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>44996</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>44997</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45005</v>
+        <v>44998</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45000</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45001</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45002</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45003</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45004</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45012</v>
+        <v>45005</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45007</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45008</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45009</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45010</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45011</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45019</v>
+        <v>45012</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45014</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45015</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45016</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45017</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45018</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45026</v>
+        <v>45019</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45021</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45022</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45023</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45024</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45025</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45028</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45029</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45030</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45031</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45032</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45041</v>
+        <v>45034</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45042</v>
+        <v>45035</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45036</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45037</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45045</v>
+        <v>45038</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45046</v>
+        <v>45039</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45047</v>
+        <v>45040</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45048</v>
+        <v>45041</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45049</v>
+        <v>45042</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45050</v>
+        <v>45043</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45051</v>
+        <v>45044</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45052</v>
+        <v>45045</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45053</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2355,10 +2355,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2434,13 +2434,13 @@
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D10" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="62">
         <v>44967</v>
@@ -2510,10 +2510,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2663,7 +2663,7 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="27">
@@ -2740,7 +2740,7 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="81" t="s">
         <v>70</v>
@@ -2816,7 +2816,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="27">
@@ -2890,7 +2890,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="27">
@@ -2964,7 +2964,7 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>70</v>
@@ -3040,7 +3040,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="27">
@@ -3119,7 +3119,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="29"/>
@@ -3194,7 +3194,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="32">
@@ -3271,7 +3271,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="32">
@@ -3345,7 +3345,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="32">
@@ -3419,7 +3419,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
@@ -3493,7 +3493,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3567,7 +3567,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
@@ -3641,7 +3641,7 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
@@ -3715,7 +3715,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
@@ -3866,7 +3866,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="37">
@@ -3943,7 +3943,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="37">
@@ -4017,7 +4017,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="37">
@@ -4091,7 +4091,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
@@ -4241,7 +4241,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="73" t="s">
         <v>37</v>
@@ -4317,7 +4317,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
       <c r="B35" s="83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>37</v>
@@ -4549,11 +4549,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4561,6 +4556,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC116F7-A91A-4679-83AF-6EC3FD4CBF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44CFCFF-2FAE-CD44-B650-2AFCC1860E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1815" yWindow="2805" windowWidth="25380" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2800" windowWidth="25380" windowHeight="11380" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -226,9 +226,6 @@
     <t>choose data processing methods</t>
   </si>
   <si>
-    <t>check data</t>
-  </si>
-  <si>
     <t>Project Snapshot 2- working with numbers</t>
   </si>
   <si>
@@ -287,6 +284,12 @@
   </si>
   <si>
     <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Korie</t>
+  </si>
+  <si>
+    <t>check data for missing values</t>
   </si>
 </sst>
 </file>
@@ -1577,25 +1580,25 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1607,7 +1610,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1616,7 +1619,7 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
@@ -1624,16 +1627,16 @@
         <v>41</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="88"/>
       <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>44994</v>
+        <v>45001</v>
       </c>
       <c r="F3" s="93"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
@@ -1646,7 +1649,7 @@
       </c>
       <c r="I4" s="90">
         <f ca="1">I5</f>
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="J4" s="91"/>
       <c r="K4" s="91"/>
@@ -1656,7 +1659,7 @@
       <c r="O4" s="92"/>
       <c r="P4" s="90">
         <f ca="1">P5</f>
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91"/>
@@ -1666,7 +1669,7 @@
       <c r="V4" s="92"/>
       <c r="W4" s="90">
         <f ca="1">W5</f>
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="X4" s="91"/>
       <c r="Y4" s="91"/>
@@ -1676,7 +1679,7 @@
       <c r="AC4" s="92"/>
       <c r="AD4" s="90">
         <f ca="1">AD5</f>
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="AE4" s="91"/>
       <c r="AF4" s="91"/>
@@ -1686,7 +1689,7 @@
       <c r="AJ4" s="92"/>
       <c r="AK4" s="90">
         <f ca="1">AK5</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="AL4" s="91"/>
       <c r="AM4" s="91"/>
@@ -1696,7 +1699,7 @@
       <c r="AQ4" s="92"/>
       <c r="AR4" s="90">
         <f ca="1">AR5</f>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="AS4" s="91"/>
       <c r="AT4" s="91"/>
@@ -1706,7 +1709,7 @@
       <c r="AX4" s="92"/>
       <c r="AY4" s="90">
         <f ca="1">AY5</f>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="AZ4" s="91"/>
       <c r="BA4" s="91"/>
@@ -1716,7 +1719,7 @@
       <c r="BE4" s="92"/>
       <c r="BF4" s="90">
         <f ca="1">BF5</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="BG4" s="91"/>
       <c r="BH4" s="91"/>
@@ -1725,7 +1728,7 @@
       <c r="BK4" s="91"/>
       <c r="BL4" s="92"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
@@ -1737,230 +1740,230 @@
       <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44992</v>
+        <v>44999</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>45001</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45003</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45004</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44999</v>
+        <v>45006</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45009</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45010</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45011</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45014</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45015</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45016</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45025</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45035</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45036</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45035</v>
+        <v>45042</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2275,7 +2278,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2353,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
@@ -2431,7 +2434,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
         <v>45</v>
@@ -2507,7 +2510,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
@@ -2583,12 +2586,12 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2660,14 +2663,16 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="63">
         <v>44985</v>
@@ -2737,13 +2742,13 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2813,10 +2818,10 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="27">
@@ -2887,10 +2892,10 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="27">
@@ -2961,13 +2966,13 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3037,7 +3042,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
         <v>49</v>
@@ -3114,12 +3119,12 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="29"/>
@@ -3191,10 +3196,10 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="32">
@@ -3268,10 +3273,10 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="32">
@@ -3342,10 +3347,10 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="32">
@@ -3416,10 +3421,10 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
@@ -3490,10 +3495,10 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3564,10 +3569,10 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
@@ -3638,10 +3643,10 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
@@ -3712,10 +3717,10 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
@@ -3786,7 +3791,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
@@ -3863,10 +3868,10 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="37">
@@ -3940,10 +3945,10 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="37">
@@ -4014,10 +4019,10 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="37">
@@ -4088,10 +4093,10 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
@@ -4162,7 +4167,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
         <v>39</v>
@@ -4238,10 +4243,10 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="73" t="s">
         <v>37</v>
@@ -4314,10 +4319,10 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>37</v>
@@ -4393,7 +4398,7 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
@@ -4464,7 +4469,7 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
@@ -4537,14 +4542,14 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="14"/>
       <c r="F39" s="59"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="15"/>
     </row>
   </sheetData>
@@ -4631,31 +4636,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4665,42 +4670,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4710,7 +4715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44CFCFF-2FAE-CD44-B650-2AFCC1860E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A69FFA-4D61-B24A-8444-03EF3CC28116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="2800" windowWidth="25380" windowHeight="11380" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -220,18 +220,12 @@
     <t>Importing libraries</t>
   </si>
   <si>
-    <t>data input</t>
-  </si>
-  <si>
     <t>choose data processing methods</t>
   </si>
   <si>
     <t>Project Snapshot 2- working with numbers</t>
   </si>
   <si>
-    <t>understand columns (correlation)</t>
-  </si>
-  <si>
     <t>exploratory data anaylsis (visualization)</t>
   </si>
   <si>
@@ -271,25 +265,25 @@
     <t>Train Test split</t>
   </si>
   <si>
-    <t>Model fitting</t>
-  </si>
-  <si>
     <t>start front-end programming debugging</t>
   </si>
   <si>
     <t xml:space="preserve"> back-end programming/libraries</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Kelvin</t>
   </si>
   <si>
     <t>Korie</t>
   </si>
   <si>
-    <t>check data for missing values</t>
+    <t>Data preprocessing</t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>Model training</t>
   </si>
 </sst>
 </file>
@@ -992,6 +986,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -999,18 +1005,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1581,7 +1575,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1626,118 +1620,118 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="C3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
         <v>45001</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
         <v>44998</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
         <v>45005</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
         <v>45012</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
         <v>45019</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
         <v>45026</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
         <v>45033</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
         <v>45040</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
         <v>45047</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44998</v>
@@ -2591,7 +2585,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2669,7 +2663,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -2745,10 +2739,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2821,7 +2815,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="27">
@@ -2895,7 +2889,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="27">
@@ -2972,7 +2966,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3044,8 +3038,8 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="80" t="s">
-        <v>49</v>
+      <c r="B18" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="27">
@@ -3123,8 +3117,8 @@
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>63</v>
+      <c r="B19" s="82" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="29"/>
@@ -3199,7 +3193,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="82" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="32">
@@ -3276,7 +3270,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="32">
@@ -3350,7 +3344,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="32">
@@ -3424,7 +3418,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
@@ -3498,7 +3492,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3572,7 +3566,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
@@ -3645,8 +3639,8 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
-      <c r="B26" s="82" t="s">
-        <v>66</v>
+      <c r="B26" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
@@ -3719,8 +3713,8 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
-      <c r="B27" s="82" t="s">
-        <v>67</v>
+      <c r="B27" s="83" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
@@ -3795,8 +3789,8 @@
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>36</v>
+      <c r="B28" s="83" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="72"/>
       <c r="D28" s="34"/>
@@ -3871,7 +3865,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="37">
@@ -3948,7 +3942,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="37">
@@ -4022,7 +4016,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="37">
@@ -4096,7 +4090,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
@@ -4170,7 +4164,7 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C33" s="73" t="s">
         <v>37</v>
@@ -4245,9 +4239,7 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
-      <c r="B34" s="83" t="s">
-        <v>53</v>
-      </c>
+      <c r="B34" s="75"/>
       <c r="C34" s="73" t="s">
         <v>37</v>
       </c>
@@ -4321,8 +4313,8 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
-      <c r="B35" s="83" t="s">
-        <v>54</v>
+      <c r="B35" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>37</v>
@@ -4402,7 +4394,7 @@
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36"/>
       <c r="C36" s="74"/>
       <c r="D36" s="16"/>
       <c r="E36" s="66"/>
@@ -4473,9 +4465,7 @@
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>0</v>
-      </c>
+      <c r="B37"/>
       <c r="C37" s="39"/>
       <c r="D37" s="40"/>
       <c r="E37" s="41"/>
@@ -4554,6 +4544,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4561,11 +4556,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A69FFA-4D61-B24A-8444-03EF3CC28116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD29314-A94E-4291-A7F8-A6C4294A23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2800" windowWidth="25380" windowHeight="11380" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -271,12 +271,6 @@
     <t xml:space="preserve"> back-end programming/libraries</t>
   </si>
   <si>
-    <t>Kelvin</t>
-  </si>
-  <si>
-    <t>Korie</t>
-  </si>
-  <si>
     <t>Data preprocessing</t>
   </si>
   <si>
@@ -284,6 +278,12 @@
   </si>
   <si>
     <t>Model training</t>
+  </si>
+  <si>
+    <t>Korie, Kelvin, Mansoor</t>
+  </si>
+  <si>
+    <t>Kelvin, Mansoor</t>
   </si>
 </sst>
 </file>
@@ -986,6 +986,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -998,13 +1005,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1575,24 +1575,24 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1604,7 +1604,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1613,125 +1613,125 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45001</v>
-      </c>
-      <c r="F3" s="90"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45002</v>
+      </c>
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>44998</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>45005</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45012</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45019</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45026</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45033</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45040</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45047</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44998</v>
@@ -1957,7 +1957,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
         <v>45</v>
@@ -2437,7 +2437,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="62">
         <v>44967</v>
@@ -2504,7 +2504,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
@@ -2580,7 +2580,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
@@ -2657,13 +2657,13 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -2736,13 +2736,13 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2812,14 +2812,16 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="81" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -2886,10 +2888,10 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="27">
@@ -2960,13 +2962,13 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3036,7 +3038,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="28" t="s">
         <v>61</v>
@@ -3113,7 +3115,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
@@ -3190,10 +3192,10 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="32">
@@ -3267,7 +3269,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
         <v>54</v>
@@ -3341,7 +3343,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
         <v>57</v>
@@ -3415,7 +3417,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
         <v>58</v>
@@ -3489,7 +3491,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
         <v>63</v>
@@ -3563,7 +3565,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
         <v>64</v>
@@ -3637,7 +3639,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="33" t="s">
         <v>36</v>
@@ -3711,7 +3713,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="83" t="s">
         <v>59</v>
@@ -3785,7 +3787,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
@@ -3862,7 +3864,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
         <v>60</v>
@@ -3939,7 +3941,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
         <v>56</v>
@@ -4013,7 +4015,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
         <v>39</v>
@@ -4087,7 +4089,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
         <v>51</v>
@@ -4161,7 +4163,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
         <v>52</v>
@@ -4237,7 +4239,7 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="75"/>
       <c r="C34" s="73" t="s">
@@ -4311,7 +4313,7 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
       <c r="B35" s="38" t="s">
         <v>0</v>
@@ -4390,7 +4392,7 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
@@ -4461,7 +4463,7 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
@@ -4532,23 +4534,18 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="14"/>
       <c r="F39" s="59"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4556,6 +4553,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">
@@ -4626,31 +4628,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4660,42 +4662,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD29314-A94E-4291-A7F8-A6C4294A23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10820975-5F8C-445F-BDCE-95C9BC2EE98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -283,7 +283,13 @@
     <t>Korie, Kelvin, Mansoor</t>
   </si>
   <si>
-    <t>Kelvin, Mansoor</t>
+    <t>Kelvin, Korie, Mansoor</t>
+  </si>
+  <si>
+    <t>Korie, Mansoor, Kelvin</t>
+  </si>
+  <si>
+    <t>Kelvin,Korie, Mansoor</t>
   </si>
 </sst>
 </file>
@@ -986,6 +992,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -993,18 +1011,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1575,7 +1581,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1620,341 +1626,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>45002</v>
-      </c>
-      <c r="F3" s="93"/>
+        <v>45014</v>
+      </c>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
-        <v>44998</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>45012</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
-        <v>45005</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>45019</v>
+      </c>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
-        <v>45012</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>45026</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
-        <v>45019</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>45033</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
-        <v>45026</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>45040</v>
+      </c>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
-        <v>45033</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>45047</v>
+      </c>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
-        <v>45040</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>45054</v>
+      </c>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
-        <v>45047</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>45061</v>
+      </c>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45015</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45018</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45022</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45024</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45025</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45029</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45030</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45031</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45032</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45037</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45038</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45039</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45027</v>
+        <v>45041</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45043</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45045</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45046</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45050</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45051</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45052</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45053</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45040</v>
+        <v>45054</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45041</v>
+        <v>45055</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45057</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45058</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45045</v>
+        <v>45059</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45046</v>
+        <v>45060</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45047</v>
+        <v>45061</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45049</v>
+        <v>45063</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45050</v>
+        <v>45064</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45051</v>
+        <v>45065</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45052</v>
+        <v>45066</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45053</v>
+        <v>45067</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2818,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D15" s="27">
         <v>0.7</v>
@@ -2968,7 +2974,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -4546,6 +4552,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4553,11 +4564,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10820975-5F8C-445F-BDCE-95C9BC2EE98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906E689-AFF2-9042-89A8-6130A447CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17480" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -217,18 +217,6 @@
     <t>Mansoor, Kelvin</t>
   </si>
   <si>
-    <t>Importing libraries</t>
-  </si>
-  <si>
-    <t>choose data processing methods</t>
-  </si>
-  <si>
-    <t>Project Snapshot 2- working with numbers</t>
-  </si>
-  <si>
-    <t>exploratory data anaylsis (visualization)</t>
-  </si>
-  <si>
     <t>Project Poster submission</t>
   </si>
   <si>
@@ -259,37 +247,58 @@
     <t>deployment testing</t>
   </si>
   <si>
-    <t>Project Snapshot 3- Data processing and modeling</t>
-  </si>
-  <si>
-    <t>Train Test split</t>
-  </si>
-  <si>
     <t>start front-end programming debugging</t>
   </si>
   <si>
     <t xml:space="preserve"> back-end programming/libraries</t>
   </si>
   <si>
-    <t>Data preprocessing</t>
-  </si>
-  <si>
-    <t>Feature Selection</t>
-  </si>
-  <si>
     <t>Model training</t>
   </si>
   <si>
-    <t>Korie, Kelvin, Mansoor</t>
-  </si>
-  <si>
-    <t>Kelvin, Korie, Mansoor</t>
-  </si>
-  <si>
-    <t>Korie, Mansoor, Kelvin</t>
-  </si>
-  <si>
-    <t>Kelvin,Korie, Mansoor</t>
+    <t>Project Snapshot 2- Data Processing</t>
+  </si>
+  <si>
+    <t>Korie, Mansoor</t>
+  </si>
+  <si>
+    <t>Korie</t>
+  </si>
+  <si>
+    <t>Data cleaning - handling missing and duplicate values</t>
+  </si>
+  <si>
+    <t>Data cleaning - visualization</t>
+  </si>
+  <si>
+    <t>Data cleaning - outliers</t>
+  </si>
+  <si>
+    <t>Data Encoding</t>
+  </si>
+  <si>
+    <t>Data Scaling</t>
+  </si>
+  <si>
+    <t>Data splitting</t>
+  </si>
+  <si>
+    <t>Data Normalization</t>
+  </si>
+  <si>
+    <t>Project Snapshot 3- Data modeling</t>
+  </si>
+  <si>
+    <t>model selection</t>
+  </si>
+  <si>
+    <t>tuning</t>
+  </si>
+  <si>
+    <t>Balance data</t>
+  </si>
+  <si>
+    <t>Feature selection</t>
   </si>
 </sst>
 </file>
@@ -992,6 +1001,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1004,13 +1020,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1577,28 +1586,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1610,7 +1619,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1619,125 +1628,125 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="C3" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45014</v>
-      </c>
-      <c r="F3" s="90"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45015</v>
+      </c>
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>45012</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>45019</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45026</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45033</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45040</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45047</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45054</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45061</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45012</v>
@@ -1963,7 +1972,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2287,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2353,7 +2362,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
@@ -2434,7 +2443,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
         <v>45</v>
@@ -2510,7 +2519,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
@@ -2586,12 +2595,12 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2663,13 +2672,13 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -2742,13 +2751,13 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2818,16 +2827,16 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D15" s="27">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -2894,7 +2903,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>66</v>
@@ -2968,13 +2977,13 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3044,25 +3053,25 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="28" t="s">
-        <v>61</v>
+      <c r="B18" s="80" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="27">
         <v>0</v>
       </c>
       <c r="E18" s="63">
-        <v>44997</v>
+        <v>45005</v>
       </c>
       <c r="F18" s="63">
-        <v>45004</v>
+        <v>45008</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3121,25 +3130,27 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30">
-        <v>45006</v>
-      </c>
-      <c r="F19" s="31">
-        <v>45018</v>
+      <c r="B19" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="81"/>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="63">
+        <v>45008</v>
+      </c>
+      <c r="F19" s="63">
+        <v>45009</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3198,25 +3209,25 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="32">
+      <c r="B20" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="27">
         <v>0</v>
       </c>
-      <c r="E20" s="64">
-        <v>45007</v>
-      </c>
-      <c r="F20" s="64">
-        <v>45018</v>
+      <c r="E20" s="63">
+        <v>45010</v>
+      </c>
+      <c r="F20" s="63">
+        <v>45011</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
@@ -3275,20 +3286,20 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="32">
+      <c r="B21" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="27">
         <v>0</v>
       </c>
-      <c r="E21" s="64">
-        <v>45006</v>
-      </c>
-      <c r="F21" s="64">
-        <v>45018</v>
+      <c r="E21" s="63">
+        <v>45011</v>
+      </c>
+      <c r="F21" s="63">
+        <v>45017</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -3349,19 +3360,19 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="32">
+      <c r="B22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="29">
         <v>0</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="30">
         <v>45006</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="31">
         <v>45018</v>
       </c>
       <c r="G22" s="17"/>
@@ -3423,17 +3434,17 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
         <v>0</v>
       </c>
       <c r="E23" s="64">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="F23" s="64">
         <v>45018</v>
@@ -3497,10 +3508,10 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3571,17 +3582,17 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
         <v>0</v>
       </c>
       <c r="E25" s="64">
-        <v>45008</v>
+        <v>45006</v>
       </c>
       <c r="F25" s="64">
         <v>45018</v>
@@ -3645,17 +3656,17 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
-      <c r="B26" s="33" t="s">
-        <v>36</v>
+      <c r="B26" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
         <v>0</v>
       </c>
       <c r="E26" s="64">
-        <v>45012</v>
+        <v>45006</v>
       </c>
       <c r="F26" s="64">
         <v>45018</v>
@@ -3719,17 +3730,17 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
-      <c r="B27" s="83" t="s">
-        <v>59</v>
+      <c r="B27" s="82" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
         <v>0</v>
       </c>
       <c r="E27" s="64">
-        <v>45011</v>
+        <v>45006</v>
       </c>
       <c r="F27" s="64">
         <v>45018</v>
@@ -3793,25 +3804,27 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35">
-        <v>45019</v>
-      </c>
-      <c r="F28" s="36">
-        <v>45032</v>
+      <c r="B28" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="32">
+        <v>0</v>
+      </c>
+      <c r="E28" s="64">
+        <v>45008</v>
+      </c>
+      <c r="F28" s="64">
+        <v>45018</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3870,20 +3883,20 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
-      <c r="B29" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="37">
+      <c r="B29" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="32">
         <v>0</v>
       </c>
-      <c r="E29" s="65">
-        <v>45020</v>
-      </c>
-      <c r="F29" s="65">
-        <v>45026</v>
+      <c r="E29" s="64">
+        <v>45012</v>
+      </c>
+      <c r="F29" s="64">
+        <v>45018</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17">
@@ -3947,20 +3960,20 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="37">
+      <c r="B30" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="32">
         <v>0</v>
       </c>
-      <c r="E30" s="65">
-        <v>45020</v>
-      </c>
-      <c r="F30" s="65">
-        <v>45026</v>
+      <c r="E30" s="64">
+        <v>45011</v>
+      </c>
+      <c r="F30" s="64">
+        <v>45018</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -4021,20 +4034,18 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
-      <c r="B31" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="37">
-        <v>0</v>
-      </c>
-      <c r="E31" s="65">
-        <v>45026</v>
-      </c>
-      <c r="F31" s="65">
-        <v>45029</v>
+      <c r="B31" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35">
+        <v>45019</v>
+      </c>
+      <c r="F31" s="36">
+        <v>45032</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -4095,20 +4106,20 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
         <v>0</v>
       </c>
       <c r="E32" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F32" s="65">
         <v>45026</v>
-      </c>
-      <c r="F32" s="65">
-        <v>45029</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -4169,22 +4180,20 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>37</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C33" s="73"/>
       <c r="D33" s="37">
         <v>0</v>
       </c>
       <c r="E33" s="65">
-        <v>45029</v>
+        <v>45020</v>
       </c>
       <c r="F33" s="65">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -4245,20 +4254,20 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="73" t="s">
-        <v>37</v>
-      </c>
+      <c r="B34" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="73"/>
       <c r="D34" s="37">
         <v>0</v>
       </c>
       <c r="E34" s="65">
+        <v>45026</v>
+      </c>
+      <c r="F34" s="65">
         <v>45029</v>
-      </c>
-      <c r="F34" s="65">
-        <v>45030</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -4319,27 +4328,25 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
-      <c r="B35" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>37</v>
-      </c>
+      <c r="B35" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="73"/>
       <c r="D35" s="37">
         <v>0</v>
       </c>
       <c r="E35" s="65">
-        <v>45047</v>
+        <v>45026</v>
       </c>
       <c r="F35" s="65">
-        <v>45051</v>
+        <v>45029</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -4398,19 +4405,29 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B36"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="B36" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0</v>
+      </c>
+      <c r="E36" s="65">
+        <v>45029</v>
+      </c>
+      <c r="F36" s="65">
+        <v>45033</v>
+      </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="str">
+      <c r="H36" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
@@ -4469,19 +4486,29 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B37"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="B37" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="65">
+        <v>45029</v>
+      </c>
+      <c r="F37" s="65">
+        <v>45030</v>
+      </c>
       <c r="G37" s="43"/>
-      <c r="H37" s="43" t="str">
+      <c r="H37" s="43">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I37" s="45"/>
       <c r="J37" s="45"/>
@@ -4540,23 +4567,49 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="65">
+        <v>45047</v>
+      </c>
+      <c r="F38" s="65">
+        <v>45051</v>
+      </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="F39" s="59"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="15"/>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="75"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="14"/>
+      <c r="F42" s="59"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4564,9 +4617,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D37">
+  <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4620,7 +4678,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D37</xm:sqref>
+          <xm:sqref>D7:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4634,31 +4692,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4668,42 +4726,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4713,7 +4771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906E689-AFF2-9042-89A8-6130A447CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30099A56-FF6F-1341-861F-104A764AEDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17480" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1001,6 +1001,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1008,18 +1020,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1589,8 +1589,8 @@
   <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1635,341 +1635,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>45015</v>
-      </c>
-      <c r="F3" s="93"/>
+        <v>45018</v>
+      </c>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
-        <v>45012</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>45019</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
-        <v>45019</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>45026</v>
+      </c>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
-        <v>45026</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>45033</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
-        <v>45033</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>45040</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
-        <v>45040</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>45047</v>
+      </c>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
-        <v>45047</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>45054</v>
+      </c>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
-        <v>45054</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>45061</v>
+      </c>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
-        <v>45061</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>45068</v>
+      </c>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45025</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45035</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45036</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45042</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45053</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45057</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45060</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45064</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45060</v>
+        <v>45067</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45061</v>
+        <v>45068</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45062</v>
+        <v>45069</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45063</v>
+        <v>45070</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45067</v>
+        <v>45074</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2908,9 +2908,11 @@
       <c r="B16" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="81" t="s">
+        <v>62</v>
+      </c>
       <c r="D16" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="63">
         <v>45000</v>
@@ -3058,9 +3060,11 @@
       <c r="B18" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="81" t="s">
+        <v>62</v>
+      </c>
       <c r="D18" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="63">
         <v>45005</v>
@@ -4610,6 +4614,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4617,11 +4626,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D40">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD29314-A94E-4291-A7F8-A6C4294A23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E1A73-29C2-4C77-895C-72388E71B207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1755" windowWidth="11565" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -986,6 +986,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -993,18 +1005,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1575,7 +1575,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1620,118 +1620,118 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
         <v>45002</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
         <v>44998</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
         <v>45005</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
         <v>45012</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
         <v>45019</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
         <v>45026</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
         <v>45033</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
         <v>45040</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
         <v>45047</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44998</v>
@@ -2821,7 +2821,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="27">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -4546,6 +4546,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4553,11 +4558,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30099A56-FF6F-1341-861F-104A764AEDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEBB506-073B-431A-B53B-8470324C6CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17480" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1001,6 +1001,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1013,13 +1020,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1588,26 +1588,26 @@
   </sheetPr>
   <dimension ref="A1:BL43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN3" sqref="BN3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1619,7 +1619,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1628,125 +1628,125 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
         <v>45018</v>
       </c>
-      <c r="F3" s="90"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>45019</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>45026</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45033</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45040</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45047</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45054</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45061</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45068</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45019</v>
@@ -1972,7 +1972,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
         <v>45</v>
@@ -2519,7 +2519,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
@@ -2595,7 +2595,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
         <v>63</v>
@@ -2687,12 +2687,12 @@
         <v>44985</v>
       </c>
       <c r="F13" s="63">
-        <v>44997</v>
+        <v>45008</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2751,7 +2751,7 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
         <v>64</v>
@@ -2766,7 +2766,7 @@
         <v>44990</v>
       </c>
       <c r="F14" s="63">
-        <v>44997</v>
+        <v>45015</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -2827,7 +2827,7 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
         <v>65</v>
@@ -2842,7 +2842,7 @@
         <v>44997</v>
       </c>
       <c r="F15" s="63">
-        <v>45004</v>
+        <v>45015</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2903,7 +2903,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>66</v>
@@ -2918,7 +2918,7 @@
         <v>45000</v>
       </c>
       <c r="F16" s="63">
-        <v>45004</v>
+        <v>45017</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -2979,13 +2979,13 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>45002</v>
       </c>
       <c r="F17" s="63">
-        <v>45004</v>
+        <v>45017</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -3055,7 +3055,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
         <v>68</v>
@@ -3070,12 +3070,12 @@
         <v>45005</v>
       </c>
       <c r="F18" s="63">
-        <v>45008</v>
+        <v>45017</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3134,7 +3134,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="80" t="s">
         <v>74</v>
@@ -3290,7 +3290,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="80" t="s">
         <v>69</v>
@@ -3364,7 +3364,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="28" t="s">
         <v>70</v>
@@ -3438,7 +3438,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
         <v>71</v>
@@ -3512,7 +3512,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
         <v>59</v>
@@ -3586,7 +3586,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
         <v>50</v>
@@ -3660,7 +3660,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
         <v>72</v>
@@ -3734,7 +3734,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="82" t="s">
         <v>53</v>
@@ -3808,7 +3808,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="82" t="s">
         <v>57</v>
@@ -3964,7 +3964,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="82" t="s">
         <v>58</v>
@@ -4038,7 +4038,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="33" t="s">
         <v>36</v>
@@ -4110,7 +4110,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
         <v>55</v>
@@ -4184,7 +4184,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
         <v>51</v>
@@ -4258,7 +4258,7 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
         <v>56</v>
@@ -4332,7 +4332,7 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
       <c r="B35" s="83" t="s">
         <v>52</v>
@@ -4409,7 +4409,7 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="83" t="s">
         <v>48</v>
       </c>
@@ -4589,14 +4589,14 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="75"/>
       <c r="C39" s="74"/>
       <c r="D39" s="16"/>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="38" t="s">
         <v>0</v>
       </c>
@@ -4605,20 +4605,15 @@
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="14"/>
       <c r="F42" s="59"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4626,6 +4621,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D40">
@@ -4696,31 +4696,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4730,42 +4730,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEBB506-073B-431A-B53B-8470324C6CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1D038-CB74-4BA1-846F-1CFDB32F1A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Feature selection</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +1004,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1008,18 +1023,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1589,8 +1592,8 @@
   <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN3" sqref="BN3"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1635,118 +1638,118 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
         <v>45018</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
         <v>45019</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
         <v>45026</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
         <v>45033</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
         <v>45040</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
         <v>45047</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
         <v>45054</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
         <v>45061</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
         <v>45068</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45019</v>
@@ -2608,12 +2611,12 @@
         <v>44984</v>
       </c>
       <c r="F12" s="26">
-        <v>45004</v>
+        <v>45026</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -3377,7 +3380,7 @@
         <v>45006</v>
       </c>
       <c r="F22" s="31">
-        <v>45018</v>
+        <v>45032</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -3445,13 +3448,13 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E23" s="64">
         <v>45007</v>
       </c>
       <c r="F23" s="64">
-        <v>45018</v>
+        <v>45032</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -3519,7 +3522,7 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="64">
         <v>45006</v>
@@ -3741,7 +3744,7 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="64">
         <v>45006</v>
@@ -3971,7 +3974,7 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="64">
         <v>45011</v>
@@ -4115,9 +4118,11 @@
       <c r="B32" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="73" t="s">
+        <v>75</v>
+      </c>
       <c r="D32" s="37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="65">
         <v>45020</v>
@@ -4420,7 +4425,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E36" s="65">
         <v>45029</v>
@@ -4501,7 +4506,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="37">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E37" s="65">
         <v>45029</v>
@@ -4614,6 +4619,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4621,11 +4631,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D40">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1D038-CB74-4BA1-846F-1CFDB32F1A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B6883C-A107-4742-9306-F92F8D6E8761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17440" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1004,6 +1004,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1016,13 +1023,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1592,25 +1592,25 @@
   <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1622,7 +1622,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1631,125 +1631,125 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45018</v>
-      </c>
-      <c r="F3" s="90"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45021</v>
+      </c>
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>45019</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>45026</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45033</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45040</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45047</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45054</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45061</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45068</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45019</v>
@@ -1975,7 +1975,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
         <v>45</v>
@@ -2522,7 +2522,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
@@ -2598,7 +2598,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
         <v>63</v>
@@ -2754,7 +2754,7 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
         <v>64</v>
@@ -2830,7 +2830,7 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
         <v>65</v>
@@ -2839,7 +2839,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -2906,13 +2906,13 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
@@ -2982,13 +2982,13 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3058,7 +3058,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
         <v>68</v>
@@ -3137,7 +3137,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="80" t="s">
         <v>74</v>
@@ -3293,7 +3293,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="80" t="s">
         <v>69</v>
@@ -3367,7 +3367,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="28" t="s">
         <v>70</v>
@@ -3441,7 +3441,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
         <v>71</v>
@@ -3515,7 +3515,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
         <v>59</v>
@@ -3589,7 +3589,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
         <v>50</v>
@@ -3663,7 +3663,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
         <v>72</v>
@@ -3737,7 +3737,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="82" t="s">
         <v>53</v>
@@ -3811,7 +3811,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="82" t="s">
         <v>57</v>
@@ -3967,7 +3967,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="82" t="s">
         <v>58</v>
@@ -4041,7 +4041,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="33" t="s">
         <v>36</v>
@@ -4113,7 +4113,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
         <v>55</v>
@@ -4189,7 +4189,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
         <v>51</v>
@@ -4263,7 +4263,7 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
         <v>56</v>
@@ -4337,7 +4337,7 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="83" t="s">
         <v>52</v>
@@ -4414,7 +4414,7 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="83" t="s">
         <v>48</v>
       </c>
@@ -4594,14 +4594,14 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="75"/>
       <c r="C39" s="74"/>
       <c r="D39" s="16"/>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>0</v>
       </c>
@@ -4610,20 +4610,15 @@
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="14"/>
       <c r="F42" s="59"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4631,6 +4626,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D40">
@@ -4701,31 +4701,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4735,42 +4735,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B6883C-A107-4742-9306-F92F8D6E8761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B861C9-FA21-7941-9E4B-56CCA3BC2075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17440" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Data splitting</t>
   </si>
   <si>
-    <t>Data Normalization</t>
-  </si>
-  <si>
     <t>Project Snapshot 3- Data modeling</t>
   </si>
   <si>
@@ -295,13 +292,13 @@
     <t>tuning</t>
   </si>
   <si>
-    <t>Balance data</t>
-  </si>
-  <si>
     <t>Feature selection</t>
   </si>
   <si>
     <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Feature engineering</t>
   </si>
 </sst>
 </file>
@@ -1589,11 +1586,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1644,7 +1641,7 @@
       <c r="D3" s="88"/>
       <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="F3" s="93"/>
     </row>
@@ -2305,7 +2302,7 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H37" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2839,7 +2836,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -3061,13 +3058,11 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>62</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C18" s="81"/>
       <c r="D18" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="63">
         <v>45005</v>
@@ -3138,21 +3133,19 @@
       <c r="BL18" s="44"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="57"/>
       <c r="B19" s="80" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="27">
         <v>0</v>
       </c>
       <c r="E19" s="63">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="F19" s="63">
-        <v>45009</v>
+        <v>45011</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
@@ -3219,23 +3212,22 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="81"/>
+        <v>68</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>62</v>
+      </c>
       <c r="D20" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="63">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="F20" s="63">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="17">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
@@ -3295,18 +3287,18 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="27">
+      <c r="C21" s="70"/>
+      <c r="D21" s="29">
         <v>0</v>
       </c>
-      <c r="E21" s="63">
-        <v>45011</v>
-      </c>
-      <c r="F21" s="63">
-        <v>45017</v>
+      <c r="E21" s="30">
+        <v>45006</v>
+      </c>
+      <c r="F21" s="31">
+        <v>45032</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -3369,17 +3361,17 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="29">
-        <v>0</v>
-      </c>
-      <c r="E22" s="30">
-        <v>45006</v>
-      </c>
-      <c r="F22" s="31">
+      <c r="C22" s="71"/>
+      <c r="D22" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="64">
+        <v>45007</v>
+      </c>
+      <c r="F22" s="64">
         <v>45032</v>
       </c>
       <c r="G22" s="17"/>
@@ -3444,17 +3436,17 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="64">
-        <v>45007</v>
+        <v>45006</v>
       </c>
       <c r="F23" s="64">
-        <v>45032</v>
+        <v>45018</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -3518,11 +3510,11 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="64">
         <v>45006</v>
@@ -3592,7 +3584,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
@@ -3666,11 +3658,11 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="64">
         <v>45006</v>
@@ -3738,22 +3730,27 @@
       <c r="BL26" s="44"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="57" t="s">
+        <v>24</v>
+      </c>
       <c r="B27" s="82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="64">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="F27" s="64">
         <v>45018</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="17">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -3812,18 +3809,16 @@
       <c r="BL27" s="44"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>24</v>
-      </c>
+      <c r="A28" s="57"/>
       <c r="B28" s="82" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="32">
         <v>0</v>
       </c>
       <c r="E28" s="64">
-        <v>45008</v>
+        <v>45012</v>
       </c>
       <c r="F28" s="64">
         <v>45018</v>
@@ -3831,7 +3826,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3893,23 +3888,20 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="64">
-        <v>45012</v>
+        <v>45011</v>
       </c>
       <c r="F29" s="64">
         <v>45018</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
+      <c r="H29" s="17"/>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
@@ -3969,18 +3961,16 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="64">
-        <v>45011</v>
-      </c>
-      <c r="F30" s="64">
-        <v>45018</v>
+      <c r="B30" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35">
+        <v>45019</v>
+      </c>
+      <c r="F30" s="36">
+        <v>45032</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -4043,16 +4033,20 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
-      <c r="B31" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35">
-        <v>45019</v>
-      </c>
-      <c r="F31" s="36">
-        <v>45032</v>
+      <c r="B31" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F31" s="65">
+        <v>45026</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -4116,13 +4110,11 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>75</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C32" s="73"/>
       <c r="D32" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="65">
         <v>45020</v>
@@ -4192,17 +4184,17 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="37">
         <v>0</v>
       </c>
       <c r="E33" s="65">
-        <v>45020</v>
+        <v>45026</v>
       </c>
       <c r="F33" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -4266,7 +4258,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="37">
@@ -4279,7 +4271,10 @@
         <v>45029</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
@@ -4338,24 +4333,28 @@
       <c r="BL34" s="44"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="57" t="s">
+        <v>26</v>
+      </c>
       <c r="B35" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="73"/>
+        <v>39</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="D35" s="37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E35" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="F35" s="65">
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -4415,207 +4414,126 @@
       <c r="BL35" s="44"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
-        <v>26</v>
+      <c r="A36" s="58" t="s">
+        <v>25</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C36" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="37">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="65">
         <v>45029</v>
       </c>
       <c r="F36" s="65">
-        <v>45033</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17">
+        <v>45030</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="44"/>
-      <c r="AI36" s="44"/>
-      <c r="AJ36" s="44"/>
-      <c r="AK36" s="44"/>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="44"/>
-      <c r="AN36" s="44"/>
-      <c r="AO36" s="44"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
-      <c r="BB36" s="44"/>
-      <c r="BC36" s="44"/>
-      <c r="BD36" s="44"/>
-      <c r="BE36" s="44"/>
-      <c r="BF36" s="44"/>
-      <c r="BG36" s="44"/>
-      <c r="BH36" s="44"/>
-      <c r="BI36" s="44"/>
-      <c r="BJ36" s="44"/>
-      <c r="BK36" s="44"/>
-      <c r="BL36" s="44"/>
-    </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
+      <c r="BB36" s="45"/>
+      <c r="BC36" s="45"/>
+      <c r="BD36" s="45"/>
+      <c r="BE36" s="45"/>
+      <c r="BF36" s="45"/>
+      <c r="BG36" s="45"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="45"/>
+      <c r="BJ36" s="45"/>
+      <c r="BK36" s="45"/>
+      <c r="BL36" s="45"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="37">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65">
-        <v>45029</v>
+        <v>45047</v>
       </c>
       <c r="F37" s="65">
-        <v>45030</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-      <c r="BD37" s="45"/>
-      <c r="BE37" s="45"/>
-      <c r="BF37" s="45"/>
-      <c r="BG37" s="45"/>
-      <c r="BH37" s="45"/>
-      <c r="BI37" s="45"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="45"/>
-      <c r="BL37" s="45"/>
+        <v>45051</v>
+      </c>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="37">
+      <c r="B38" s="75"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="65">
-        <v>45047</v>
-      </c>
-      <c r="F38" s="65">
-        <v>45051</v>
-      </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="75"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="14"/>
+      <c r="F41" s="59"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="14"/>
-      <c r="F42" s="59"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="15"/>
+      <c r="C42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4633,7 +4551,7 @@
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D40">
+  <conditionalFormatting sqref="D7:D39">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4647,12 +4565,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL37">
+  <conditionalFormatting sqref="I5:BL36">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL37">
+  <conditionalFormatting sqref="I7:BL36">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4687,7 +4605,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D40</xm:sqref>
+          <xm:sqref>D7:D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E1A73-29C2-4C77-895C-72388E71B207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB99A38D-7A6D-4466-8F2F-BB25723846D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1755" windowWidth="11565" windowHeight="11385" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Kelvin, Mansoor</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
   </si>
 </sst>
 </file>
@@ -986,6 +989,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -998,13 +1008,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1574,8 +1577,8 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1620,341 +1623,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45002</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>45018</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
-        <v>44998</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+        <v>45019</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
-        <v>45005</v>
-      </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+        <v>45026</v>
+      </c>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
-        <v>45012</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+        <v>45033</v>
+      </c>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
-        <v>45019</v>
-      </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+        <v>45040</v>
+      </c>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
-        <v>45026</v>
-      </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+        <v>45047</v>
+      </c>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
-        <v>45033</v>
-      </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+        <v>45054</v>
+      </c>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
-        <v>45040</v>
-      </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+        <v>45061</v>
+      </c>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
-        <v>45047</v>
-      </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+        <v>45068</v>
+      </c>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44998</v>
+        <v>45019</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45022</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45023</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45024</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45025</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45005</v>
+        <v>45026</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45006</v>
+        <v>45027</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45029</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45030</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45031</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45032</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45012</v>
+        <v>45033</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45013</v>
+        <v>45034</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45035</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45036</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45037</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45038</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45039</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45019</v>
+        <v>45040</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45020</v>
+        <v>45041</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45042</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45043</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45044</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45045</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45046</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45026</v>
+        <v>45047</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45027</v>
+        <v>45048</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45050</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45051</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45052</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45053</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45033</v>
+        <v>45054</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45034</v>
+        <v>45055</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45056</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45057</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45058</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45059</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45060</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45040</v>
+        <v>45061</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45041</v>
+        <v>45062</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45042</v>
+        <v>45063</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45064</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45065</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45045</v>
+        <v>45066</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45046</v>
+        <v>45067</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45047</v>
+        <v>45068</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45048</v>
+        <v>45069</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45049</v>
+        <v>45070</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45050</v>
+        <v>45071</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45051</v>
+        <v>45072</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45052</v>
+        <v>45073</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45053</v>
+        <v>45074</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,9 +3425,11 @@
       <c r="B23" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="71"/>
+      <c r="C23" s="71" t="s">
+        <v>70</v>
+      </c>
       <c r="D23" s="32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E23" s="64">
         <v>45006</v>
@@ -3496,9 +3501,11 @@
       <c r="B24" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="71"/>
+      <c r="C24" s="71" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E24" s="64">
         <v>45006</v>
@@ -3572,7 +3579,7 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E25" s="64">
         <v>45008</v>
@@ -4546,11 +4553,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4558,6 +4560,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B861C9-FA21-7941-9E4B-56CCA3BC2075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AF60B2-EE29-4649-B00B-15C435C78577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17440" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,6 +1001,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1008,18 +1020,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1590,7 +1590,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1635,341 +1635,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>45022</v>
-      </c>
-      <c r="F3" s="93"/>
+        <v>45025</v>
+      </c>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
-        <v>45019</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>45026</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
-        <v>45026</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>45033</v>
+      </c>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
-        <v>45033</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>45040</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
-        <v>45040</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>45047</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
-        <v>45047</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>45054</v>
+      </c>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
-        <v>45054</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>45061</v>
+      </c>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
-        <v>45061</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>45068</v>
+      </c>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
-        <v>45068</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>45075</v>
+      </c>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45035</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45036</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45042</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45053</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45057</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45060</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45057</v>
+        <v>45064</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45067</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45061</v>
+        <v>45068</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45062</v>
+        <v>45069</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45063</v>
+        <v>45070</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45067</v>
+        <v>45074</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45068</v>
+        <v>45075</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45069</v>
+        <v>45076</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45070</v>
+        <v>45077</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45071</v>
+        <v>45078</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45074</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -4537,6 +4537,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4544,11 +4549,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D39">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB99A38D-7A6D-4466-8F2F-BB25723846D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E5E4A-60CC-4C99-9764-D01A75501288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,6 +989,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -996,18 +1008,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1623,118 +1623,118 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>45018</v>
-      </c>
-      <c r="F3" s="93"/>
+        <v>45022</v>
+      </c>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
         <v>45019</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
         <v>45026</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
         <v>45033</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
         <v>45040</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
         <v>45047</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
         <v>45054</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
         <v>45061</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
         <v>45068</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45019</v>
@@ -4553,6 +4553,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4560,11 +4565,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AF60B2-EE29-4649-B00B-15C435C78577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38773D1B-D370-F646-8E03-029CC9C33CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17440" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
     <t>Kelvin</t>
   </si>
   <si>
-    <t>Feature engineering</t>
+    <t>Mansoor, Korie</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +1001,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1013,13 +1020,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1586,11 +1586,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL42"/>
+  <dimension ref="A1:BL41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1635,118 +1635,118 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
         <v>45025</v>
       </c>
-      <c r="F3" s="90"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45026</v>
@@ -3060,9 +3060,11 @@
       <c r="B18" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="81" t="s">
+        <v>74</v>
+      </c>
       <c r="D18" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="63">
         <v>45005</v>
@@ -3135,11 +3137,13 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="81"/>
+        <v>68</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>62</v>
+      </c>
       <c r="D19" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="63">
         <v>45010</v>
@@ -3211,20 +3215,18 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1</v>
-      </c>
-      <c r="E20" s="63">
-        <v>45011</v>
-      </c>
-      <c r="F20" s="63">
-        <v>45017</v>
+      <c r="B20" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
+        <v>45006</v>
+      </c>
+      <c r="F20" s="31">
+        <v>45032</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -3287,17 +3289,17 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="30">
-        <v>45006</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="B21" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="64">
+        <v>45007</v>
+      </c>
+      <c r="F21" s="64">
         <v>45032</v>
       </c>
       <c r="G21" s="17"/>
@@ -3362,17 +3364,17 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="32">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="64">
-        <v>45007</v>
+        <v>45006</v>
       </c>
       <c r="F22" s="64">
-        <v>45032</v>
+        <v>45018</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -3436,11 +3438,11 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="64">
         <v>45006</v>
@@ -3510,7 +3512,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3584,11 +3586,11 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="64">
         <v>45006</v>
@@ -3658,14 +3660,14 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="64">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="F26" s="64">
         <v>45018</v>
@@ -3734,14 +3736,14 @@
         <v>24</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
         <v>0</v>
       </c>
       <c r="E27" s="64">
-        <v>45008</v>
+        <v>45012</v>
       </c>
       <c r="F27" s="64">
         <v>45018</v>
@@ -3749,7 +3751,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3811,14 +3813,14 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="64">
-        <v>45012</v>
+        <v>45011</v>
       </c>
       <c r="F28" s="64">
         <v>45018</v>
@@ -3826,7 +3828,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3887,18 +3889,16 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
-      <c r="B29" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="64">
-        <v>45011</v>
-      </c>
-      <c r="F29" s="64">
-        <v>45018</v>
+      <c r="B29" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35">
+        <v>45019</v>
+      </c>
+      <c r="F29" s="36">
+        <v>45032</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -3961,16 +3961,20 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35">
-        <v>45019</v>
-      </c>
-      <c r="F30" s="36">
-        <v>45032</v>
+      <c r="B30" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F30" s="65">
+        <v>45026</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -4034,13 +4038,11 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C31" s="73"/>
       <c r="D31" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="65">
         <v>45020</v>
@@ -4110,17 +4112,17 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
         <v>0</v>
       </c>
       <c r="E32" s="65">
-        <v>45020</v>
+        <v>45026</v>
       </c>
       <c r="F32" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -4184,7 +4186,7 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="37">
@@ -4258,22 +4260,24 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="73"/>
+        <v>39</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="D34" s="37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E34" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="F34" s="65">
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
@@ -4337,24 +4341,24 @@
         <v>26</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="37">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="65">
         <v>45029</v>
       </c>
       <c r="F35" s="65">
-        <v>45033</v>
+        <v>45030</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -4418,24 +4422,24 @@
         <v>25</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="37">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E36" s="65">
-        <v>45029</v>
+        <v>45047</v>
       </c>
       <c r="F36" s="65">
-        <v>45030</v>
+        <v>45051</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
@@ -4495,53 +4499,31 @@
       <c r="BL36" s="45"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="37">
+      <c r="B37" s="75"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="65">
-        <v>45047</v>
-      </c>
-      <c r="F37" s="65">
-        <v>45051</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="75"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="14"/>
+      <c r="F40" s="59"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="14"/>
-      <c r="F41" s="59"/>
-    </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="15"/>
+      <c r="C41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4549,9 +4531,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D39">
+  <conditionalFormatting sqref="D7:D38">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4605,7 +4592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D39</xm:sqref>
+          <xm:sqref>D7:D38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E5E4A-60CC-4C99-9764-D01A75501288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A963F10E-2322-4DD5-BB2C-FBA20B92014B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="0" windowWidth="21075" windowHeight="15390" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -283,10 +283,13 @@
     <t>Korie, Kelvin, Mansoor</t>
   </si>
   <si>
-    <t>Kelvin, Mansoor</t>
-  </si>
-  <si>
     <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Mansoor, Korie</t>
+  </si>
+  <si>
+    <t>Korie, Mansoor</t>
   </si>
 </sst>
 </file>
@@ -989,6 +992,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1001,13 +1011,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1577,8 +1580,8 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC23" sqref="AC23"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,341 +1626,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45022</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>45029</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
-        <v>45019</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+        <v>45026</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
-        <v>45026</v>
-      </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+        <v>45033</v>
+      </c>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
-        <v>45033</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+        <v>45040</v>
+      </c>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
-        <v>45040</v>
-      </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+        <v>45047</v>
+      </c>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
-        <v>45047</v>
-      </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+        <v>45054</v>
+      </c>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
-        <v>45054</v>
-      </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+        <v>45061</v>
+      </c>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
-        <v>45061</v>
-      </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+        <v>45068</v>
+      </c>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
-        <v>45068</v>
-      </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+        <v>45075</v>
+      </c>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45035</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45036</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45042</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45053</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45057</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45060</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45057</v>
+        <v>45064</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45067</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45061</v>
+        <v>45068</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45062</v>
+        <v>45069</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45063</v>
+        <v>45070</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45067</v>
+        <v>45074</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45068</v>
+        <v>45075</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45069</v>
+        <v>45076</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45070</v>
+        <v>45077</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45071</v>
+        <v>45078</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45074</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2745,7 +2748,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2821,10 +2824,10 @@
         <v>50</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D15" s="27">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -2896,9 +2899,11 @@
       <c r="B16" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="63">
         <v>45000</v>
@@ -2971,7 +2976,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3048,7 +3053,7 @@
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="63">
         <v>44997</v>
@@ -3200,9 +3205,11 @@
       <c r="B20" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="71" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="64">
         <v>45007</v>
@@ -3426,7 +3433,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="32">
         <v>0.75</v>
@@ -3502,7 +3509,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="32">
         <v>0.75</v>
@@ -4101,9 +4108,11 @@
       <c r="B32" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="73" t="s">
+        <v>70</v>
+      </c>
       <c r="D32" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="65">
         <v>45026</v>
@@ -4553,11 +4562,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4565,6 +4569,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38773D1B-D370-F646-8E03-029CC9C33CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E5E4A-60CC-4C99-9764-D01A75501288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17440" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -217,6 +217,18 @@
     <t>Mansoor, Kelvin</t>
   </si>
   <si>
+    <t>Importing libraries</t>
+  </si>
+  <si>
+    <t>choose data processing methods</t>
+  </si>
+  <si>
+    <t>Project Snapshot 2- working with numbers</t>
+  </si>
+  <si>
+    <t>exploratory data anaylsis (visualization)</t>
+  </si>
+  <si>
     <t>Project Poster submission</t>
   </si>
   <si>
@@ -247,58 +259,34 @@
     <t>deployment testing</t>
   </si>
   <si>
+    <t>Project Snapshot 3- Data processing and modeling</t>
+  </si>
+  <si>
+    <t>Train Test split</t>
+  </si>
+  <si>
     <t>start front-end programming debugging</t>
   </si>
   <si>
     <t xml:space="preserve"> back-end programming/libraries</t>
   </si>
   <si>
+    <t>Data preprocessing</t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
     <t>Model training</t>
   </si>
   <si>
-    <t>Project Snapshot 2- Data Processing</t>
-  </si>
-  <si>
-    <t>Korie, Mansoor</t>
-  </si>
-  <si>
-    <t>Korie</t>
-  </si>
-  <si>
-    <t>Data cleaning - handling missing and duplicate values</t>
-  </si>
-  <si>
-    <t>Data cleaning - visualization</t>
-  </si>
-  <si>
-    <t>Data cleaning - outliers</t>
-  </si>
-  <si>
-    <t>Data Encoding</t>
-  </si>
-  <si>
-    <t>Data Scaling</t>
-  </si>
-  <si>
-    <t>Data splitting</t>
-  </si>
-  <si>
-    <t>Project Snapshot 3- Data modeling</t>
-  </si>
-  <si>
-    <t>model selection</t>
-  </si>
-  <si>
-    <t>tuning</t>
-  </si>
-  <si>
-    <t>Feature selection</t>
+    <t>Korie, Kelvin, Mansoor</t>
+  </si>
+  <si>
+    <t>Kelvin, Mansoor</t>
   </si>
   <si>
     <t>Kelvin</t>
-  </si>
-  <si>
-    <t>Mansoor, Korie</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +989,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1008,18 +1008,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1586,28 +1574,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL41"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
         <v>40</v>
@@ -1619,7 +1607,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1628,351 +1616,351 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="C3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>45025</v>
-      </c>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45022</v>
+      </c>
+      <c r="F3" s="90"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
+        <v>45019</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
+        <f ca="1">P5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
-        <f ca="1">P5</f>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
+        <f ca="1">W5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
-        <f ca="1">W5</f>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
+        <f ca="1">AD5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
-        <f ca="1">AD5</f>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
+        <f ca="1">AK5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
-        <f ca="1">AK5</f>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
+        <f ca="1">AR5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
-        <f ca="1">AR5</f>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
+        <f ca="1">AY5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
-        <f ca="1">AY5</f>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
+        <f ca="1">BF5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
-        <f ca="1">BF5</f>
-        <v>45075</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45026</v>
+        <v>45019</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45028</v>
+        <v>45021</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45022</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45023</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45024</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45025</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45028</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45029</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45030</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45031</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45032</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45041</v>
+        <v>45034</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45035</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45036</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45037</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45038</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45039</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45047</v>
+        <v>45040</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45048</v>
+        <v>45041</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45042</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45043</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45044</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45045</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45046</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45054</v>
+        <v>45047</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
+        <v>45049</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45057</v>
+        <v>45050</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45058</v>
+        <v>45051</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45059</v>
+        <v>45052</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45053</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45061</v>
+        <v>45054</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45062</v>
+        <v>45055</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45063</v>
+        <v>45056</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45064</v>
+        <v>45057</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45065</v>
+        <v>45058</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45066</v>
+        <v>45059</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45067</v>
+        <v>45060</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45068</v>
+        <v>45061</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45069</v>
+        <v>45062</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45070</v>
+        <v>45063</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45071</v>
+        <v>45064</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45065</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45073</v>
+        <v>45066</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45074</v>
+        <v>45067</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45075</v>
+        <v>45068</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45076</v>
+        <v>45069</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45077</v>
+        <v>45070</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <v>45071</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45079</v>
+        <v>45072</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45080</v>
+        <v>45073</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2220,7 +2208,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2287,7 +2275,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
@@ -2302,7 +2290,7 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H37" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2362,7 +2350,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
@@ -2443,7 +2431,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
         <v>45</v>
@@ -2519,7 +2507,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
@@ -2595,12 +2583,12 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2608,12 +2596,12 @@
         <v>44984</v>
       </c>
       <c r="F12" s="26">
-        <v>45026</v>
+        <v>45004</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2672,13 +2660,13 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -2687,12 +2675,12 @@
         <v>44985</v>
       </c>
       <c r="F13" s="63">
-        <v>45008</v>
+        <v>44997</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2751,13 +2739,13 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2766,7 +2754,7 @@
         <v>44990</v>
       </c>
       <c r="F14" s="63">
-        <v>45015</v>
+        <v>44997</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -2827,22 +2815,22 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D15" s="27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
       </c>
       <c r="F15" s="63">
-        <v>45015</v>
+        <v>45004</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2903,22 +2891,20 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="81" t="s">
-        <v>61</v>
-      </c>
+      <c r="C16" s="81"/>
       <c r="D16" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="63">
         <v>45000</v>
       </c>
       <c r="F16" s="63">
-        <v>45017</v>
+        <v>45004</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -2979,13 +2965,13 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -2994,7 +2980,7 @@
         <v>45002</v>
       </c>
       <c r="F17" s="63">
-        <v>45017</v>
+        <v>45004</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -3055,27 +3041,25 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
-      <c r="B18" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>74</v>
-      </c>
+      <c r="B18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="81"/>
       <c r="D18" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="63">
-        <v>45005</v>
+        <v>44997</v>
       </c>
       <c r="F18" s="63">
-        <v>45017</v>
+        <v>45004</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3134,27 +3118,25 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="81" t="s">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="27">
-        <v>1</v>
-      </c>
-      <c r="E19" s="63">
-        <v>45010</v>
-      </c>
-      <c r="F19" s="63">
-        <v>45011</v>
+      <c r="C19" s="70"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30">
+        <v>45006</v>
+      </c>
+      <c r="F19" s="31">
+        <v>45018</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3213,23 +3195,26 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
-      <c r="B20" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="29">
+      <c r="B20" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="32">
         <v>0</v>
       </c>
-      <c r="E20" s="30">
-        <v>45006</v>
-      </c>
-      <c r="F20" s="31">
-        <v>45032</v>
+      <c r="E20" s="64">
+        <v>45007</v>
+      </c>
+      <c r="F20" s="64">
+        <v>45018</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
@@ -3287,20 +3272,20 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="32">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="64">
-        <v>45007</v>
+        <v>45006</v>
       </c>
       <c r="F21" s="64">
-        <v>45032</v>
+        <v>45018</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -3361,14 +3346,14 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="64">
         <v>45006</v>
@@ -3435,14 +3420,16 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="71"/>
+        <v>58</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>70</v>
+      </c>
       <c r="D23" s="32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E23" s="64">
         <v>45006</v>
@@ -3509,14 +3496,16 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="71"/>
+        <v>63</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E24" s="64">
         <v>45006</v>
@@ -3583,17 +3572,17 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
       <c r="B25" s="82" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E25" s="64">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="F25" s="64">
         <v>45018</v>
@@ -3657,17 +3646,17 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
-      <c r="B26" s="82" t="s">
-        <v>54</v>
+      <c r="B26" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="32">
         <v>0</v>
       </c>
       <c r="E26" s="64">
-        <v>45008</v>
+        <v>45012</v>
       </c>
       <c r="F26" s="64">
         <v>45018</v>
@@ -3731,28 +3720,23 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="82" t="s">
-        <v>57</v>
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57"/>
+      <c r="B27" s="83" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="32">
         <v>0</v>
       </c>
       <c r="E27" s="64">
-        <v>45012</v>
+        <v>45011</v>
       </c>
       <c r="F27" s="64">
         <v>45018</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
+      <c r="H27" s="17"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -3810,25 +3794,25 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="64">
-        <v>45011</v>
-      </c>
-      <c r="F28" s="64">
-        <v>45018</v>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35">
+        <v>45019</v>
+      </c>
+      <c r="F28" s="36">
+        <v>45032</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3887,21 +3871,26 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
-      <c r="B29" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35">
-        <v>45019</v>
-      </c>
-      <c r="F29" s="36">
-        <v>45032</v>
+      <c r="B29" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F29" s="65">
+        <v>45026</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
@@ -3959,16 +3948,14 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>73</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C30" s="73"/>
       <c r="D30" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="65">
         <v>45020</v>
@@ -4035,20 +4022,20 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="37">
         <v>0</v>
       </c>
       <c r="E31" s="65">
-        <v>45020</v>
+        <v>45026</v>
       </c>
       <c r="F31" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -4109,10 +4096,10 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="37">
@@ -4183,20 +4170,22 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="D33" s="37">
         <v>0</v>
       </c>
       <c r="E33" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="F33" s="65">
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -4257,28 +4246,23 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
-      <c r="B34" s="83" t="s">
-        <v>39</v>
-      </c>
+      <c r="B34" s="75"/>
       <c r="C34" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="37">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E34" s="65">
         <v>45029</v>
       </c>
       <c r="F34" s="65">
-        <v>45033</v>
+        <v>45030</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="H34" s="17"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
@@ -4336,29 +4320,27 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="83" t="s">
-        <v>47</v>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="57"/>
+      <c r="B35" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="37">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="65">
-        <v>45029</v>
+        <v>45047</v>
       </c>
       <c r="F35" s="65">
-        <v>45030</v>
+        <v>45051</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -4417,113 +4399,165 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="44"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="44"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="37">
-        <v>0</v>
-      </c>
-      <c r="E36" s="65">
-        <v>45047</v>
-      </c>
-      <c r="F36" s="65">
-        <v>45051</v>
-      </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43">
+      <c r="B37"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
-      <c r="AQ36" s="45"/>
-      <c r="AR36" s="45"/>
-      <c r="AS36" s="45"/>
-      <c r="AT36" s="45"/>
-      <c r="AU36" s="45"/>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
-      <c r="BB36" s="45"/>
-      <c r="BC36" s="45"/>
-      <c r="BD36" s="45"/>
-      <c r="BE36" s="45"/>
-      <c r="BF36" s="45"/>
-      <c r="BG36" s="45"/>
-      <c r="BH36" s="45"/>
-      <c r="BI36" s="45"/>
-      <c r="BJ36" s="45"/>
-      <c r="BK36" s="45"/>
-      <c r="BL36" s="45"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="75"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="14"/>
-      <c r="F40" s="59"/>
-    </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="15"/>
+        <v/>
+      </c>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="45"/>
+      <c r="BA37" s="45"/>
+      <c r="BB37" s="45"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45"/>
+      <c r="BE37" s="45"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="45"/>
+      <c r="BH37" s="45"/>
+      <c r="BI37" s="45"/>
+      <c r="BJ37" s="45"/>
+      <c r="BK37" s="45"/>
+      <c r="BL37" s="45"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="14"/>
+      <c r="F39" s="59"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4531,14 +4565,9 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D38">
+  <conditionalFormatting sqref="D7:D37">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4552,12 +4581,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL36">
+  <conditionalFormatting sqref="I5:BL37">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL36">
+  <conditionalFormatting sqref="I7:BL37">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4592,7 +4621,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D38</xm:sqref>
+          <xm:sqref>D7:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4606,31 +4635,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4640,42 +4669,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +4714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E5E4A-60CC-4C99-9764-D01A75501288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BCB29E-1801-4F68-8E23-0F45D1E39D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="3375" windowWidth="11460" windowHeight="11340" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -989,6 +989,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1001,13 +1008,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1577,8 +1577,8 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC23" sqref="AC23"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN28" sqref="BN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,341 +1623,341 @@
       <c r="B3" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45022</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>45029</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
-        <v>45019</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+        <v>45026</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
-        <v>45026</v>
-      </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+        <v>45033</v>
+      </c>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
-        <v>45033</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+        <v>45040</v>
+      </c>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
-        <v>45040</v>
-      </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+        <v>45047</v>
+      </c>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
-        <v>45047</v>
-      </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+        <v>45054</v>
+      </c>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
-        <v>45054</v>
-      </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+        <v>45061</v>
+      </c>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
-        <v>45061</v>
-      </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+        <v>45068</v>
+      </c>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
-        <v>45068</v>
-      </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+        <v>45075</v>
+      </c>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45035</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45036</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45042</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45053</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45057</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45060</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45057</v>
+        <v>45064</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45067</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45061</v>
+        <v>45068</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45062</v>
+        <v>45069</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45063</v>
+        <v>45070</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45067</v>
+        <v>45074</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45068</v>
+        <v>45075</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45069</v>
+        <v>45076</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45070</v>
+        <v>45077</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45071</v>
+        <v>45078</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45074</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3429,7 +3429,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="64">
         <v>45006</v>
@@ -3505,7 +3505,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="64">
         <v>45006</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="64">
         <v>45008</v>
@@ -4553,11 +4553,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4565,6 +4560,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D37">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E5E4A-60CC-4C99-9764-D01A75501288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23FDC43-58C9-2C43-BB4C-77C7D44F488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -184,18 +184,12 @@
     <t>COMP 195- Senior Project</t>
   </si>
   <si>
-    <t>Phase 4- Troubleshooting and Debugging</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
     <t>Project Snapshot 1</t>
   </si>
   <si>
-    <t>Update: Readme, project plan, project artifacts. Create Wiki for new snapshot</t>
-  </si>
-  <si>
     <t>Medical AI Disease Diagnostic Tool</t>
   </si>
   <si>
@@ -217,76 +211,82 @@
     <t>Mansoor, Kelvin</t>
   </si>
   <si>
-    <t>Importing libraries</t>
-  </si>
-  <si>
-    <t>choose data processing methods</t>
-  </si>
-  <si>
-    <t>Project Snapshot 2- working with numbers</t>
-  </si>
-  <si>
-    <t>exploratory data anaylsis (visualization)</t>
-  </si>
-  <si>
-    <t>Project Poster submission</t>
-  </si>
-  <si>
-    <t>Senior Project Day/ Final project implementation</t>
-  </si>
-  <si>
     <t>Project Current Day:</t>
   </si>
   <si>
     <t>evaluation</t>
   </si>
   <si>
-    <t>make final UI</t>
-  </si>
-  <si>
     <t>test with actual data</t>
   </si>
   <si>
-    <t>Research Github pages</t>
-  </si>
-  <si>
-    <t>relearn Javascript, HTML, CSS or Django/flask</t>
-  </si>
-  <si>
-    <t>make website efficient</t>
-  </si>
-  <si>
-    <t>deployment testing</t>
-  </si>
-  <si>
-    <t>Project Snapshot 3- Data processing and modeling</t>
-  </si>
-  <si>
-    <t>Train Test split</t>
-  </si>
-  <si>
-    <t>start front-end programming debugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> back-end programming/libraries</t>
-  </si>
-  <si>
-    <t>Data preprocessing</t>
-  </si>
-  <si>
-    <t>Feature Selection</t>
-  </si>
-  <si>
-    <t>Model training</t>
-  </si>
-  <si>
-    <t>Korie, Kelvin, Mansoor</t>
-  </si>
-  <si>
-    <t>Kelvin, Mansoor</t>
-  </si>
-  <si>
     <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Project Snapshot 2- Data preprocessing and cleaning</t>
+  </si>
+  <si>
+    <t>Korie</t>
+  </si>
+  <si>
+    <t>Handling missing and duplicate values</t>
+  </si>
+  <si>
+    <t>Visualizations</t>
+  </si>
+  <si>
+    <t>Korie, Mansoor</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>Mansoor, Kelvin, Korie</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>feature selection</t>
+  </si>
+  <si>
+    <t>split the data</t>
+  </si>
+  <si>
+    <t>Project Snapshot 3- Model selection and training</t>
+  </si>
+  <si>
+    <t>Model Selection</t>
+  </si>
+  <si>
+    <t>Model Training</t>
+  </si>
+  <si>
+    <t>Fine-tune the model parameters</t>
+  </si>
+  <si>
+    <t>Phase 4- Develop a user interface (UI) for input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a UI for users to input patient information </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implement input validation and error handling</t>
+  </si>
+  <si>
+    <t>Process user input</t>
+  </si>
+  <si>
+    <t>Make predictions</t>
+  </si>
+  <si>
+    <t>Display prediction results and relevant statistics</t>
+  </si>
+  <si>
+    <t>Deploy the tool</t>
   </si>
 </sst>
 </file>
@@ -989,6 +989,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1001,13 +1008,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1574,31 +1574,31 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC23" sqref="AC23"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58"/>
       <c r="B1" s="78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1607,7 +1607,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
@@ -1616,351 +1616,351 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+        <v>39</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45022</v>
-      </c>
-      <c r="F3" s="90"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45032</v>
+      </c>
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
-        <v>45019</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+        <v>45033</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
-        <v>45026</v>
-      </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+        <v>45040</v>
+      </c>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
-        <v>45033</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+        <v>45047</v>
+      </c>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
-        <v>45040</v>
-      </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+        <v>45054</v>
+      </c>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
-        <v>45047</v>
-      </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+        <v>45061</v>
+      </c>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
-        <v>45054</v>
-      </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+        <v>45068</v>
+      </c>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
-        <v>45061</v>
-      </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+        <v>45075</v>
+      </c>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
-        <v>45068</v>
-      </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45082</v>
+      </c>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45037</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45038</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45039</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>45027</v>
+        <v>45041</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45043</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45045</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45046</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45050</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45051</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45052</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45053</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>45040</v>
+        <v>45054</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>45041</v>
+        <v>45055</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45043</v>
+        <v>45057</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45058</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45045</v>
+        <v>45059</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45046</v>
+        <v>45060</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>45047</v>
+        <v>45061</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45049</v>
+        <v>45063</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45050</v>
+        <v>45064</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45051</v>
+        <v>45065</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>45066</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45053</v>
+        <v>45067</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>45054</v>
+        <v>45068</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>45055</v>
+        <v>45069</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
+        <v>45070</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45057</v>
+        <v>45071</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45058</v>
+        <v>45072</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45059</v>
+        <v>45073</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45074</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>45061</v>
+        <v>45075</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45063</v>
+        <v>45077</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45064</v>
+        <v>45078</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45065</v>
+        <v>45079</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45080</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>45067</v>
+        <v>45081</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>45068</v>
+        <v>45082</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>45069</v>
+        <v>45083</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45070</v>
+        <v>45084</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45071</v>
+        <v>45085</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45086</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>45073</v>
+        <v>45087</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>45074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
@@ -2275,12 +2275,12 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="19"/>
@@ -2350,15 +2350,15 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2431,13 +2431,13 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
@@ -2507,13 +2507,13 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2583,7 +2583,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>34</v>
       </c>
@@ -2660,13 +2660,13 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -2739,13 +2739,13 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2815,16 +2815,16 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" s="27">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="63">
         <v>44997</v>
@@ -2891,14 +2891,16 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="81"/>
+        <v>56</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="63">
         <v>45000</v>
@@ -2965,13 +2967,13 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3041,14 +3043,16 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="81"/>
+      <c r="B18" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>53</v>
+      </c>
       <c r="D18" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="63">
         <v>44997</v>
@@ -3118,25 +3122,25 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30">
-        <v>45006</v>
-      </c>
-      <c r="F19" s="31">
-        <v>45018</v>
-      </c>
+      <c r="B19" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="27">
+        <v>1</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
+      <c r="H19" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3195,25 +3199,23 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="32">
-        <v>0</v>
-      </c>
-      <c r="E20" s="64">
-        <v>45007</v>
-      </c>
-      <c r="F20" s="64">
+      <c r="B20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30">
+        <v>45006</v>
+      </c>
+      <c r="F20" s="31">
         <v>45018</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
@@ -3272,17 +3274,19 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="71"/>
+        <v>61</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>50</v>
+      </c>
       <c r="D21" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="64">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="F21" s="64">
         <v>45018</v>
@@ -3346,14 +3350,16 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="71"/>
+        <v>62</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="64">
         <v>45006</v>
@@ -3420,16 +3426,16 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
       <c r="B23" s="82" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D23" s="32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E23" s="64">
         <v>45006</v>
@@ -3496,16 +3502,14 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="71" t="s">
-        <v>70</v>
-      </c>
+      <c r="C24" s="71"/>
       <c r="D24" s="32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E24" s="64">
         <v>45006</v>
@@ -3572,20 +3576,18 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="64">
-        <v>45008</v>
-      </c>
-      <c r="F25" s="64">
-        <v>45018</v>
+      <c r="C25" s="72"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35">
+        <v>45019</v>
+      </c>
+      <c r="F25" s="36">
+        <v>45032</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -3646,20 +3648,22 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
-      <c r="B26" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="32">
+      <c r="B26" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="37">
         <v>0</v>
       </c>
-      <c r="E26" s="64">
-        <v>45012</v>
-      </c>
-      <c r="F26" s="64">
-        <v>45018</v>
+      <c r="E26" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F26" s="65">
+        <v>45026</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -3720,20 +3724,20 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="32">
+        <v>66</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="37">
         <v>0</v>
       </c>
-      <c r="E27" s="64">
-        <v>45011</v>
-      </c>
-      <c r="F27" s="64">
-        <v>45018</v>
+      <c r="E27" s="65">
+        <v>45020</v>
+      </c>
+      <c r="F27" s="65">
+        <v>45026</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -3794,25 +3798,27 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35">
-        <v>45019</v>
-      </c>
-      <c r="F28" s="36">
-        <v>45032</v>
+        <v>67</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="37">
+        <v>0</v>
+      </c>
+      <c r="E28" s="65">
+        <v>45026</v>
+      </c>
+      <c r="F28" s="65">
+        <v>45029</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3871,25 +3877,25 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="37">
         <v>0</v>
       </c>
       <c r="E29" s="65">
-        <v>45020</v>
+        <v>45026</v>
       </c>
       <c r="F29" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3948,20 +3954,22 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="73"/>
+        <v>68</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>36</v>
+      </c>
       <c r="D30" s="37">
         <v>0</v>
       </c>
       <c r="E30" s="65">
-        <v>45020</v>
+        <v>45029</v>
       </c>
       <c r="F30" s="65">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -4022,20 +4030,22 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="73"/>
+        <v>69</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>36</v>
+      </c>
       <c r="D31" s="37">
         <v>0</v>
       </c>
       <c r="E31" s="65">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="F31" s="65">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -4096,20 +4106,22 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="73"/>
+        <v>70</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>36</v>
+      </c>
       <c r="D32" s="37">
         <v>0</v>
       </c>
       <c r="E32" s="65">
-        <v>45026</v>
+        <v>45047</v>
       </c>
       <c r="F32" s="65">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -4170,23 +4182,13 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
-      <c r="B33" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="37">
-        <v>0</v>
-      </c>
-      <c r="E33" s="65">
-        <v>45029</v>
-      </c>
-      <c r="F33" s="65">
-        <v>45033</v>
-      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="44"/>
@@ -4246,21 +4248,15 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="37">
+      <c r="B34" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="65">
-        <v>45029</v>
-      </c>
-      <c r="F34" s="65">
-        <v>45030</v>
-      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="44"/>
@@ -4320,27 +4316,17 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
-      <c r="B35" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="37">
-        <v>0</v>
-      </c>
-      <c r="E35" s="65">
-        <v>45047</v>
-      </c>
-      <c r="F35" s="65">
-        <v>45051</v>
-      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="5"/>
+      <c r="F35"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="17">
+      <c r="H35" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -4399,15 +4385,15 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B36"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="C36" s="14"/>
+      <c r="D36"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4470,15 +4456,15 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B37"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="C37" s="15"/>
+      <c r="D37"/>
+      <c r="E37" s="5"/>
+      <c r="F37"/>
       <c r="G37" s="43"/>
       <c r="H37" s="43" t="str">
         <f t="shared" si="6"/>
@@ -4541,23 +4527,11 @@
       <c r="BK37" s="45"/>
       <c r="BL37" s="45"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="F39" s="59"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4565,9 +4539,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D37">
+  <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4621,7 +4600,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D37</xm:sqref>
+          <xm:sqref>D7:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4635,31 +4614,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
@@ -4669,42 +4648,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
@@ -4714,7 +4693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>15</v>
       </c>

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23FDC43-58C9-2C43-BB4C-77C7D44F488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E236DFB-FE2A-4345-95D2-16906D18E275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -217,9 +217,6 @@
     <t>evaluation</t>
   </si>
   <si>
-    <t>test with actual data</t>
-  </si>
-  <si>
     <t>Kelvin</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>Deploy the tool</t>
+  </si>
+  <si>
+    <t>test with actual user data</t>
   </si>
 </sst>
 </file>
@@ -989,6 +989,18 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -996,18 +1008,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1577,8 +1577,8 @@
   <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:F3"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1623,118 +1623,118 @@
       <c r="B3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
         <v>45032</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f ca="1">I5</f>
         <v>45033</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f ca="1">P5</f>
         <v>45040</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f ca="1">W5</f>
         <v>45047</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f ca="1">AD5</f>
         <v>45054</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f ca="1">AK5</f>
         <v>45061</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f ca="1">AR5</f>
         <v>45068</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f ca="1">AY5</f>
         <v>45075</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f ca="1">BF5</f>
         <v>45082</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45033</v>
@@ -2358,7 +2358,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="24"/>
@@ -2663,10 +2663,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -2742,10 +2742,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="81" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -2818,10 +2818,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
@@ -2894,10 +2894,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
@@ -2970,10 +2970,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -3046,10 +3046,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="27">
         <v>1</v>
@@ -3127,10 +3127,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="27">
         <v>1</v>
@@ -3202,7 +3202,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="70"/>
       <c r="D20" s="29"/>
@@ -3277,10 +3277,10 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="32">
         <v>1</v>
@@ -3353,10 +3353,10 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="32">
         <v>1</v>
@@ -3432,7 +3432,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="32">
         <v>1</v>
@@ -3505,7 +3505,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="32">
@@ -3579,7 +3579,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="34"/>
@@ -3651,10 +3651,10 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="37">
         <v>0</v>
@@ -3727,7 +3727,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
       <c r="B27" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="37">
@@ -3803,11 +3803,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="73"/>
+        <v>66</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>49</v>
+      </c>
       <c r="D28" s="37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="65">
         <v>45026</v>
@@ -3880,7 +3882,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="83" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="37">
@@ -3957,7 +3959,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="73" t="s">
         <v>36</v>
@@ -4033,7 +4035,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="73" t="s">
         <v>36</v>
@@ -4109,7 +4111,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="73" t="s">
         <v>36</v>
@@ -4532,6 +4534,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4539,11 +4546,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D34">

--- a/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
+++ b/Medical Al Disease Diagnostic Tool.Gantt.Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E236DFB-FE2A-4345-95D2-16906D18E275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D784BBD0-F3AE-5A4C-97CD-082C2DC0D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="15840" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,6 +989,13 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1001,13 +1008,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1578,7 +1578,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1623,118 +1623,118 @@
       <c r="B3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="88"/>
+      <c r="E3" s="93">
         <f ca="1">TODAY()</f>
-        <v>45032</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>45035</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="90">
         <f ca="1">I5</f>
         <v>45033</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f ca="1">P5</f>
         <v>45040</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f ca="1">W5</f>
         <v>45047</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f ca="1">AD5</f>
         <v>45054</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f ca="1">AK5</f>
         <v>45061</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f ca="1">AR5</f>
         <v>45068</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f ca="1">AY5</f>
         <v>45075</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f ca="1">BF5</f>
         <v>45082</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45033</v>
@@ -3809,7 +3809,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="65">
         <v>45026</v>
@@ -4534,11 +4534,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4546,6 +4541,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="D7:D34">
